--- a/input_data/implants/implants_info_new.xlsx
+++ b/input_data/implants/implants_info_new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/SharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>Тип</t>
   </si>
@@ -47,27 +47,6 @@
   </si>
   <si>
     <t>ПЛАН</t>
-  </si>
-  <si>
-    <t>31 янв.</t>
-  </si>
-  <si>
-    <t>01 февр.</t>
-  </si>
-  <si>
-    <t>02 февр.</t>
-  </si>
-  <si>
-    <t>03 февр.</t>
-  </si>
-  <si>
-    <t>04 февр.</t>
-  </si>
-  <si>
-    <t>05 февр.</t>
-  </si>
-  <si>
-    <t>06 февр.</t>
   </si>
   <si>
     <t>07 февр.</t>
@@ -560,11 +539,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="50" formatCode=""/>
-    <numFmt numFmtId="51" formatCode="0&quot; янв.&quot;"/>
-    <numFmt numFmtId="52" formatCode="00&quot; февр.&quot;"/>
-    <numFmt numFmtId="53" formatCode="0&quot; февр.&quot;"/>
+    <numFmt numFmtId="51" formatCode="00&quot; февр.&quot;"/>
+    <numFmt numFmtId="52" formatCode="0&quot; февр.&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -710,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf/>
     <xf applyAlignment="true">
       <alignment horizontal="left"/>
@@ -772,9 +750,6 @@
     <xf numFmtId="52" fontId="3" fillId="3" borderId="5" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="53" fontId="3" fillId="3" borderId="5" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -794,7 +769,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false"/>
   </sheetPr>
-  <dimension ref="AU109"/>
+  <dimension ref="AN109"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -811,23 +786,23 @@
     <col min="9" max="9" width="9.33203125" style="1" customWidth="true"/>
     <col min="10" max="10" width="9.33203125" style="1" customWidth="true"/>
     <col min="11" max="11" width="8.16796875" style="1" customWidth="true"/>
-    <col min="12" max="12" width="7.83203125" style="1" customWidth="true"/>
+    <col min="12" max="12" width="8.16796875" style="1" customWidth="true"/>
     <col min="13" max="13" width="7.16796875" style="1" customWidth="true"/>
-    <col min="14" max="14" width="6.16796875" style="1" customWidth="true"/>
+    <col min="14" max="14" width="8.16796875" style="1" customWidth="true"/>
     <col min="15" max="15" width="9.33203125" style="1" customWidth="true" outlineLevel="1"/>
     <col min="16" max="16" width="9.33203125" style="1" customWidth="true" outlineLevel="1"/>
     <col min="17" max="17" width="8.16796875" style="1" customWidth="true" outlineLevel="1"/>
-    <col min="18" max="18" width="7.83203125" style="1" customWidth="true" outlineLevel="1"/>
+    <col min="18" max="18" width="8.16796875" style="1" customWidth="true" outlineLevel="1"/>
     <col min="19" max="19" width="7.16796875" style="1" customWidth="true" outlineLevel="1"/>
-    <col min="20" max="20" width="6.16796875" style="1" customWidth="true" outlineLevel="1"/>
+    <col min="20" max="20" width="8.16796875" style="1" customWidth="true" outlineLevel="1"/>
     <col min="21" max="21" width="8.16796875" style="1" customWidth="true"/>
     <col min="22" max="22" width="7.66796875" style="1" customWidth="true"/>
-    <col min="23" max="23" width="13.66796875" style="1" customWidth="true" outlineLevel="1"/>
-    <col min="24" max="24" width="15.33203125" style="1" customWidth="true" outlineLevel="1"/>
-    <col min="25" max="25" width="15.33203125" style="1" customWidth="true" outlineLevel="1"/>
-    <col min="26" max="26" width="15.33203125" style="1" customWidth="true" outlineLevel="1"/>
-    <col min="27" max="27" width="15.33203125" style="1" customWidth="true" outlineLevel="1"/>
-    <col min="28" max="28" width="15.33203125" style="1" customWidth="true" outlineLevel="1"/>
+    <col min="23" max="23" width="15.33203125" style="1" customWidth="true" outlineLevel="1"/>
+    <col min="24" max="24" width="12.33203125" style="1" customWidth="true" outlineLevel="1"/>
+    <col min="25" max="25" width="12.33203125" style="1" customWidth="true" outlineLevel="1"/>
+    <col min="26" max="26" width="12.33203125" style="1" customWidth="true" outlineLevel="1"/>
+    <col min="27" max="27" width="12.33203125" style="1" customWidth="true" outlineLevel="1"/>
+    <col min="28" max="28" width="12.33203125" style="1" customWidth="true" outlineLevel="1"/>
     <col min="29" max="29" width="12.33203125" style="1" customWidth="true" outlineLevel="1"/>
     <col min="30" max="30" width="12.33203125" style="1" customWidth="true" outlineLevel="1"/>
     <col min="31" max="31" width="12.33203125" style="1" customWidth="true" outlineLevel="1"/>
@@ -839,13 +814,6 @@
     <col min="37" max="37" width="12.33203125" style="1" customWidth="true" outlineLevel="1"/>
     <col min="38" max="38" width="12.33203125" style="1" customWidth="true" outlineLevel="1"/>
     <col min="39" max="39" width="12.33203125" style="1" customWidth="true" outlineLevel="1"/>
-    <col min="40" max="40" width="12.33203125" style="1" customWidth="true" outlineLevel="1"/>
-    <col min="41" max="41" width="12.33203125" style="1" customWidth="true" outlineLevel="1"/>
-    <col min="42" max="42" width="12.33203125" style="1" customWidth="true" outlineLevel="1"/>
-    <col min="43" max="43" width="12.33203125" style="1" customWidth="true" outlineLevel="1"/>
-    <col min="44" max="44" width="12.33203125" style="1" customWidth="true" outlineLevel="1"/>
-    <col min="45" max="45" width="12.33203125" style="1" customWidth="true" outlineLevel="1"/>
-    <col min="46" max="46" width="12.33203125" style="1" customWidth="true" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="true">
@@ -943,27 +911,6 @@
       </c>
       <c r="AM1" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" ht="19" customHeight="true">
@@ -976,102 +923,81 @@
       <c r="G2" s="2" t="e"/>
       <c r="H2" s="2" t="e"/>
       <c r="I2" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J2" s="5" t="e"/>
       <c r="K2" s="5" t="e"/>
       <c r="L2" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M2" s="5" t="e"/>
       <c r="N2" s="5" t="e"/>
       <c r="O2" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="P2" s="5" t="e"/>
       <c r="Q2" s="5" t="e"/>
       <c r="R2" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="S2" s="5" t="e"/>
       <c r="T2" s="5" t="e"/>
       <c r="U2" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="AF2" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="AG2" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="AH2" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="AI2" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="AJ2" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="AL2" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="AM2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT2" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="true">
@@ -1084,40 +1010,40 @@
       <c r="G3" s="3" t="e"/>
       <c r="H3" s="3" t="e"/>
       <c r="I3" s="8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="U3" s="3" t="e"/>
       <c r="V3" s="6" t="e"/>
@@ -1138,38 +1064,31 @@
       <c r="AK3" s="6" t="e"/>
       <c r="AL3" s="6" t="e"/>
       <c r="AM3" s="6" t="e"/>
-      <c r="AN3" s="6" t="e"/>
-      <c r="AO3" s="6" t="e"/>
-      <c r="AP3" s="6" t="e"/>
-      <c r="AQ3" s="6" t="e"/>
-      <c r="AR3" s="6" t="e"/>
-      <c r="AS3" s="6" t="e"/>
-      <c r="AT3" s="6" t="e"/>
     </row>
     <row r="4" ht="33" customHeight="true">
       <c r="A4" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I4" s="11" t="n">
         <v>3</v>
@@ -1222,38 +1141,31 @@
       <c r="AK4" s="9" t="e"/>
       <c r="AL4" s="9" t="e"/>
       <c r="AM4" s="9" t="e"/>
-      <c r="AN4" s="9" t="e"/>
-      <c r="AO4" s="9" t="e"/>
-      <c r="AP4" s="9" t="e"/>
-      <c r="AQ4" s="9" t="e"/>
-      <c r="AR4" s="9" t="e"/>
-      <c r="AS4" s="9" t="e"/>
-      <c r="AT4" s="9" t="e"/>
     </row>
     <row r="5" ht="33" customHeight="true">
       <c r="A5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="F5" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I5" s="11" t="n">
         <v>0</v>
@@ -1306,45 +1218,38 @@
       <c r="AK5" s="9" t="e"/>
       <c r="AL5" s="9" t="e"/>
       <c r="AM5" s="9" t="e"/>
-      <c r="AN5" s="9" t="e"/>
-      <c r="AO5" s="9" t="e"/>
-      <c r="AP5" s="9" t="e"/>
-      <c r="AQ5" s="9" t="e"/>
-      <c r="AR5" s="9" t="e"/>
-      <c r="AS5" s="9" t="e"/>
-      <c r="AT5" s="9" t="e"/>
     </row>
     <row r="6" ht="33" customHeight="true">
       <c r="A6" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I6" s="11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J6" s="12" t="e"/>
       <c r="K6" s="13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L6" s="11" t="n">
         <v>23</v>
@@ -1356,11 +1261,11 @@
         <v>23</v>
       </c>
       <c r="O6" s="11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P6" s="12" t="e"/>
       <c r="Q6" s="13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R6" s="11" t="n">
         <v>23</v>
@@ -1390,38 +1295,31 @@
       <c r="AK6" s="9" t="e"/>
       <c r="AL6" s="9" t="e"/>
       <c r="AM6" s="9" t="e"/>
-      <c r="AN6" s="9" t="e"/>
-      <c r="AO6" s="9" t="e"/>
-      <c r="AP6" s="9" t="e"/>
-      <c r="AQ6" s="9" t="e"/>
-      <c r="AR6" s="9" t="e"/>
-      <c r="AS6" s="9" t="e"/>
-      <c r="AT6" s="9" t="e"/>
     </row>
     <row r="7" ht="33" customHeight="true">
       <c r="A7" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="F7" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I7" s="13" t="n">
         <v>12</v>
@@ -1474,70 +1372,63 @@
       <c r="AK7" s="9" t="e"/>
       <c r="AL7" s="9" t="e"/>
       <c r="AM7" s="9" t="e"/>
-      <c r="AN7" s="9" t="e"/>
-      <c r="AO7" s="9" t="e"/>
-      <c r="AP7" s="9" t="e"/>
-      <c r="AQ7" s="9" t="e"/>
-      <c r="AR7" s="9" t="e"/>
-      <c r="AS7" s="9" t="e"/>
-      <c r="AT7" s="9" t="e"/>
     </row>
     <row r="8" ht="33" customHeight="true">
       <c r="A8" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="F8" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I8" s="11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" s="12" t="e"/>
       <c r="K8" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O8" s="11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P8" s="12" t="e"/>
       <c r="Q8" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S8" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T8" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U8" s="15" t="e"/>
       <c r="V8" s="15" t="e"/>
@@ -1558,70 +1449,63 @@
       <c r="AK8" s="9" t="e"/>
       <c r="AL8" s="9" t="e"/>
       <c r="AM8" s="9" t="e"/>
-      <c r="AN8" s="9" t="e"/>
-      <c r="AO8" s="9" t="e"/>
-      <c r="AP8" s="9" t="e"/>
-      <c r="AQ8" s="9" t="e"/>
-      <c r="AR8" s="9" t="e"/>
-      <c r="AS8" s="9" t="e"/>
-      <c r="AT8" s="9" t="e"/>
     </row>
     <row r="9" ht="33" customHeight="true">
       <c r="A9" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I9" s="13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" s="12" t="e"/>
       <c r="K9" s="13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L9" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M9" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N9" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O9" s="13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P9" s="12" t="e"/>
       <c r="Q9" s="13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R9" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S9" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T9" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U9" s="15" t="e"/>
       <c r="V9" s="15" t="e"/>
@@ -1642,38 +1526,31 @@
       <c r="AK9" s="9" t="e"/>
       <c r="AL9" s="9" t="e"/>
       <c r="AM9" s="9" t="e"/>
-      <c r="AN9" s="9" t="e"/>
-      <c r="AO9" s="9" t="e"/>
-      <c r="AP9" s="9" t="e"/>
-      <c r="AQ9" s="9" t="e"/>
-      <c r="AR9" s="9" t="e"/>
-      <c r="AS9" s="9" t="e"/>
-      <c r="AT9" s="9" t="e"/>
     </row>
     <row r="10" ht="33" customHeight="true">
       <c r="A10" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I10" s="13" t="n">
         <v>39</v>
@@ -1726,38 +1603,31 @@
       <c r="AK10" s="9" t="e"/>
       <c r="AL10" s="9" t="e"/>
       <c r="AM10" s="9" t="e"/>
-      <c r="AN10" s="9" t="e"/>
-      <c r="AO10" s="9" t="e"/>
-      <c r="AP10" s="9" t="e"/>
-      <c r="AQ10" s="9" t="e"/>
-      <c r="AR10" s="9" t="e"/>
-      <c r="AS10" s="9" t="e"/>
-      <c r="AT10" s="9" t="e"/>
     </row>
     <row r="11" ht="33" customHeight="true">
       <c r="A11" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I11" s="11" t="n">
         <v>0</v>
@@ -1810,38 +1680,31 @@
       <c r="AK11" s="9" t="e"/>
       <c r="AL11" s="9" t="e"/>
       <c r="AM11" s="9" t="e"/>
-      <c r="AN11" s="9" t="e"/>
-      <c r="AO11" s="9" t="e"/>
-      <c r="AP11" s="9" t="e"/>
-      <c r="AQ11" s="9" t="e"/>
-      <c r="AR11" s="9" t="e"/>
-      <c r="AS11" s="9" t="e"/>
-      <c r="AT11" s="9" t="e"/>
     </row>
     <row r="12" ht="33" customHeight="true">
       <c r="A12" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I12" s="13" t="n">
         <v>35</v>
@@ -1894,70 +1757,63 @@
       <c r="AK12" s="9" t="e"/>
       <c r="AL12" s="9" t="e"/>
       <c r="AM12" s="9" t="e"/>
-      <c r="AN12" s="9" t="e"/>
-      <c r="AO12" s="9" t="e"/>
-      <c r="AP12" s="9" t="e"/>
-      <c r="AQ12" s="9" t="e"/>
-      <c r="AR12" s="9" t="e"/>
-      <c r="AS12" s="9" t="e"/>
-      <c r="AT12" s="9" t="e"/>
     </row>
     <row r="13" ht="33" customHeight="true">
       <c r="A13" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I13" s="13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J13" s="12" t="e"/>
       <c r="K13" s="13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L13" s="13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M13" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O13" s="13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P13" s="12" t="e"/>
       <c r="Q13" s="13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R13" s="13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S13" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T13" s="13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U13" s="15" t="e"/>
       <c r="V13" s="15" t="e"/>
@@ -1978,38 +1834,31 @@
       <c r="AK13" s="9" t="e"/>
       <c r="AL13" s="9" t="e"/>
       <c r="AM13" s="9" t="e"/>
-      <c r="AN13" s="9" t="e"/>
-      <c r="AO13" s="9" t="e"/>
-      <c r="AP13" s="9" t="e"/>
-      <c r="AQ13" s="9" t="e"/>
-      <c r="AR13" s="9" t="e"/>
-      <c r="AS13" s="9" t="e"/>
-      <c r="AT13" s="9" t="e"/>
     </row>
     <row r="14" ht="22" customHeight="true">
       <c r="A14" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I14" s="13" t="n">
         <v>35</v>
@@ -2066,38 +1915,31 @@
       <c r="AK14" s="9" t="e"/>
       <c r="AL14" s="9" t="e"/>
       <c r="AM14" s="9" t="e"/>
-      <c r="AN14" s="9" t="e"/>
-      <c r="AO14" s="9" t="e"/>
-      <c r="AP14" s="9" t="e"/>
-      <c r="AQ14" s="9" t="e"/>
-      <c r="AR14" s="9" t="e"/>
-      <c r="AS14" s="9" t="e"/>
-      <c r="AT14" s="9" t="e"/>
     </row>
     <row r="15" ht="22" customHeight="true">
       <c r="A15" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I15" s="13" t="n">
         <v>4</v>
@@ -2154,38 +1996,31 @@
       <c r="AK15" s="9" t="e"/>
       <c r="AL15" s="9" t="e"/>
       <c r="AM15" s="9" t="e"/>
-      <c r="AN15" s="9" t="e"/>
-      <c r="AO15" s="9" t="e"/>
-      <c r="AP15" s="9" t="e"/>
-      <c r="AQ15" s="9" t="e"/>
-      <c r="AR15" s="9" t="e"/>
-      <c r="AS15" s="9" t="e"/>
-      <c r="AT15" s="9" t="e"/>
     </row>
     <row r="16" ht="22" customHeight="true">
       <c r="A16" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I16" s="13" t="n">
         <v>13</v>
@@ -2242,38 +2077,31 @@
       <c r="AK16" s="9" t="e"/>
       <c r="AL16" s="9" t="e"/>
       <c r="AM16" s="9" t="e"/>
-      <c r="AN16" s="9" t="e"/>
-      <c r="AO16" s="9" t="e"/>
-      <c r="AP16" s="9" t="e"/>
-      <c r="AQ16" s="9" t="e"/>
-      <c r="AR16" s="9" t="e"/>
-      <c r="AS16" s="9" t="e"/>
-      <c r="AT16" s="9" t="e"/>
     </row>
     <row r="17" ht="22" customHeight="true">
       <c r="A17" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I17" s="13" t="n">
         <v>8</v>
@@ -2330,38 +2158,31 @@
       <c r="AK17" s="9" t="e"/>
       <c r="AL17" s="9" t="e"/>
       <c r="AM17" s="9" t="e"/>
-      <c r="AN17" s="9" t="e"/>
-      <c r="AO17" s="9" t="e"/>
-      <c r="AP17" s="9" t="e"/>
-      <c r="AQ17" s="9" t="e"/>
-      <c r="AR17" s="9" t="e"/>
-      <c r="AS17" s="9" t="e"/>
-      <c r="AT17" s="9" t="e"/>
     </row>
     <row r="18" ht="33" customHeight="true">
       <c r="A18" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I18" s="13" t="n">
         <v>81</v>
@@ -2418,38 +2239,31 @@
       <c r="AK18" s="9" t="e"/>
       <c r="AL18" s="9" t="e"/>
       <c r="AM18" s="9" t="e"/>
-      <c r="AN18" s="9" t="e"/>
-      <c r="AO18" s="9" t="e"/>
-      <c r="AP18" s="9" t="e"/>
-      <c r="AQ18" s="9" t="e"/>
-      <c r="AR18" s="9" t="e"/>
-      <c r="AS18" s="9" t="e"/>
-      <c r="AT18" s="9" t="e"/>
     </row>
     <row r="19" ht="33" customHeight="true">
       <c r="A19" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I19" s="13" t="n">
         <v>234</v>
@@ -2506,38 +2320,31 @@
       <c r="AK19" s="9" t="e"/>
       <c r="AL19" s="9" t="e"/>
       <c r="AM19" s="9" t="e"/>
-      <c r="AN19" s="9" t="e"/>
-      <c r="AO19" s="9" t="e"/>
-      <c r="AP19" s="9" t="e"/>
-      <c r="AQ19" s="9" t="e"/>
-      <c r="AR19" s="9" t="e"/>
-      <c r="AS19" s="9" t="e"/>
-      <c r="AT19" s="9" t="e"/>
     </row>
     <row r="20" ht="33" customHeight="true">
       <c r="A20" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I20" s="13" t="n">
         <v>94</v>
@@ -2594,38 +2401,31 @@
       <c r="AK20" s="9" t="e"/>
       <c r="AL20" s="9" t="e"/>
       <c r="AM20" s="9" t="e"/>
-      <c r="AN20" s="9" t="e"/>
-      <c r="AO20" s="9" t="e"/>
-      <c r="AP20" s="9" t="e"/>
-      <c r="AQ20" s="9" t="e"/>
-      <c r="AR20" s="9" t="e"/>
-      <c r="AS20" s="9" t="e"/>
-      <c r="AT20" s="9" t="e"/>
     </row>
     <row r="21" ht="33" customHeight="true">
       <c r="A21" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I21" s="13" t="n">
         <v>91</v>
@@ -2682,38 +2482,31 @@
       <c r="AK21" s="9" t="e"/>
       <c r="AL21" s="9" t="e"/>
       <c r="AM21" s="9" t="e"/>
-      <c r="AN21" s="9" t="e"/>
-      <c r="AO21" s="9" t="e"/>
-      <c r="AP21" s="9" t="e"/>
-      <c r="AQ21" s="9" t="e"/>
-      <c r="AR21" s="9" t="e"/>
-      <c r="AS21" s="9" t="e"/>
-      <c r="AT21" s="9" t="e"/>
     </row>
     <row r="22" ht="33" customHeight="true">
       <c r="A22" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="E22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="F22" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I22" s="13" t="n">
         <v>560</v>
@@ -2766,74 +2559,67 @@
       <c r="AK22" s="9" t="e"/>
       <c r="AL22" s="9" t="e"/>
       <c r="AM22" s="9" t="e"/>
-      <c r="AN22" s="9" t="e"/>
-      <c r="AO22" s="9" t="e"/>
-      <c r="AP22" s="9" t="e"/>
-      <c r="AQ22" s="9" t="e"/>
-      <c r="AR22" s="9" t="e"/>
-      <c r="AS22" s="9" t="e"/>
-      <c r="AT22" s="9" t="e"/>
     </row>
     <row r="23" ht="33" customHeight="true">
       <c r="A23" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="E23" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I23" s="13" t="n">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J23" s="13" t="n">
         <v>174</v>
       </c>
       <c r="K23" s="13" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L23" s="13" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M23" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N23" s="13" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O23" s="13" t="n">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="P23" s="13" t="n">
         <v>174</v>
       </c>
       <c r="Q23" s="13" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="R23" s="13" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S23" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T23" s="13" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U23" s="15" t="e"/>
       <c r="V23" s="15" t="e"/>
@@ -2854,38 +2640,31 @@
       <c r="AK23" s="9" t="e"/>
       <c r="AL23" s="9" t="e"/>
       <c r="AM23" s="9" t="e"/>
-      <c r="AN23" s="9" t="e"/>
-      <c r="AO23" s="9" t="e"/>
-      <c r="AP23" s="9" t="e"/>
-      <c r="AQ23" s="9" t="e"/>
-      <c r="AR23" s="9" t="e"/>
-      <c r="AS23" s="9" t="e"/>
-      <c r="AT23" s="9" t="e"/>
     </row>
     <row r="24" ht="33" customHeight="true">
       <c r="A24" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="E24" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I24" s="13" t="n">
         <v>627</v>
@@ -2938,38 +2717,31 @@
       <c r="AK24" s="9" t="e"/>
       <c r="AL24" s="9" t="e"/>
       <c r="AM24" s="9" t="e"/>
-      <c r="AN24" s="9" t="e"/>
-      <c r="AO24" s="9" t="e"/>
-      <c r="AP24" s="9" t="e"/>
-      <c r="AQ24" s="9" t="e"/>
-      <c r="AR24" s="9" t="e"/>
-      <c r="AS24" s="9" t="e"/>
-      <c r="AT24" s="9" t="e"/>
     </row>
     <row r="25" ht="33" customHeight="true">
       <c r="A25" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="E25" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I25" s="13" t="n">
         <v>238</v>
@@ -3022,47 +2794,40 @@
       <c r="AK25" s="9" t="e"/>
       <c r="AL25" s="9" t="e"/>
       <c r="AM25" s="9" t="e"/>
-      <c r="AN25" s="9" t="e"/>
-      <c r="AO25" s="9" t="e"/>
-      <c r="AP25" s="9" t="e"/>
-      <c r="AQ25" s="9" t="e"/>
-      <c r="AR25" s="9" t="e"/>
-      <c r="AS25" s="9" t="e"/>
-      <c r="AT25" s="9" t="e"/>
     </row>
     <row r="26" ht="33" customHeight="true">
       <c r="A26" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I26" s="13" t="n">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J26" s="13" t="n">
         <v>221</v>
       </c>
       <c r="K26" s="13" t="n">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="L26" s="13" t="n">
         <v>36</v>
@@ -3074,13 +2839,13 @@
         <v>36</v>
       </c>
       <c r="O26" s="13" t="n">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="P26" s="13" t="n">
         <v>221</v>
       </c>
       <c r="Q26" s="13" t="n">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="R26" s="13" t="n">
         <v>36</v>
@@ -3110,70 +2875,63 @@
       <c r="AK26" s="9" t="e"/>
       <c r="AL26" s="9" t="e"/>
       <c r="AM26" s="9" t="e"/>
-      <c r="AN26" s="9" t="e"/>
-      <c r="AO26" s="9" t="e"/>
-      <c r="AP26" s="9" t="e"/>
-      <c r="AQ26" s="9" t="e"/>
-      <c r="AR26" s="9" t="e"/>
-      <c r="AS26" s="9" t="e"/>
-      <c r="AT26" s="9" t="e"/>
     </row>
     <row r="27" ht="33" customHeight="true">
       <c r="A27" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I27" s="13" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J27" s="12" t="e"/>
       <c r="K27" s="13" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L27" s="13" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M27" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N27" s="13" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O27" s="13" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="P27" s="12" t="e"/>
       <c r="Q27" s="13" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="R27" s="13" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S27" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T27" s="13" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U27" s="15" t="e"/>
       <c r="V27" s="15" t="e"/>
@@ -3194,38 +2952,31 @@
       <c r="AK27" s="9" t="e"/>
       <c r="AL27" s="9" t="e"/>
       <c r="AM27" s="9" t="e"/>
-      <c r="AN27" s="9" t="e"/>
-      <c r="AO27" s="9" t="e"/>
-      <c r="AP27" s="9" t="e"/>
-      <c r="AQ27" s="9" t="e"/>
-      <c r="AR27" s="9" t="e"/>
-      <c r="AS27" s="9" t="e"/>
-      <c r="AT27" s="9" t="e"/>
     </row>
     <row r="28" ht="33" customHeight="true">
       <c r="A28" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I28" s="16" t="n">
         <v>1387</v>
@@ -3282,38 +3033,31 @@
       <c r="AK28" s="9" t="e"/>
       <c r="AL28" s="9" t="e"/>
       <c r="AM28" s="9" t="e"/>
-      <c r="AN28" s="9" t="e"/>
-      <c r="AO28" s="9" t="e"/>
-      <c r="AP28" s="9" t="e"/>
-      <c r="AQ28" s="9" t="e"/>
-      <c r="AR28" s="9" t="e"/>
-      <c r="AS28" s="9" t="e"/>
-      <c r="AT28" s="9" t="e"/>
     </row>
     <row r="29" ht="33" customHeight="true">
       <c r="A29" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I29" s="13" t="n">
         <v>205</v>
@@ -3366,38 +3110,31 @@
       <c r="AK29" s="9" t="e"/>
       <c r="AL29" s="9" t="e"/>
       <c r="AM29" s="9" t="e"/>
-      <c r="AN29" s="9" t="e"/>
-      <c r="AO29" s="9" t="e"/>
-      <c r="AP29" s="9" t="e"/>
-      <c r="AQ29" s="9" t="e"/>
-      <c r="AR29" s="9" t="e"/>
-      <c r="AS29" s="9" t="e"/>
-      <c r="AT29" s="9" t="e"/>
     </row>
     <row r="30" ht="33" customHeight="true">
       <c r="A30" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I30" s="13" t="n">
         <v>18</v>
@@ -3450,38 +3187,31 @@
       <c r="AK30" s="9" t="e"/>
       <c r="AL30" s="9" t="e"/>
       <c r="AM30" s="9" t="e"/>
-      <c r="AN30" s="9" t="e"/>
-      <c r="AO30" s="9" t="e"/>
-      <c r="AP30" s="9" t="e"/>
-      <c r="AQ30" s="9" t="e"/>
-      <c r="AR30" s="9" t="e"/>
-      <c r="AS30" s="9" t="e"/>
-      <c r="AT30" s="9" t="e"/>
     </row>
     <row r="31" ht="33" customHeight="true">
       <c r="A31" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I31" s="13" t="n">
         <v>2</v>
@@ -3534,38 +3264,31 @@
       <c r="AK31" s="9" t="e"/>
       <c r="AL31" s="9" t="e"/>
       <c r="AM31" s="9" t="e"/>
-      <c r="AN31" s="9" t="e"/>
-      <c r="AO31" s="9" t="e"/>
-      <c r="AP31" s="9" t="e"/>
-      <c r="AQ31" s="9" t="e"/>
-      <c r="AR31" s="9" t="e"/>
-      <c r="AS31" s="9" t="e"/>
-      <c r="AT31" s="9" t="e"/>
     </row>
     <row r="32" ht="33" customHeight="true">
       <c r="A32" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D32" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="F32" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I32" s="13" t="n">
         <v>124</v>
@@ -3618,38 +3341,31 @@
       <c r="AK32" s="9" t="e"/>
       <c r="AL32" s="9" t="e"/>
       <c r="AM32" s="9" t="e"/>
-      <c r="AN32" s="9" t="e"/>
-      <c r="AO32" s="9" t="e"/>
-      <c r="AP32" s="9" t="e"/>
-      <c r="AQ32" s="9" t="e"/>
-      <c r="AR32" s="9" t="e"/>
-      <c r="AS32" s="9" t="e"/>
-      <c r="AT32" s="9" t="e"/>
     </row>
     <row r="33" ht="33" customHeight="true">
       <c r="A33" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I33" s="13" t="n">
         <v>378</v>
@@ -3702,38 +3418,31 @@
       <c r="AK33" s="9" t="e"/>
       <c r="AL33" s="9" t="e"/>
       <c r="AM33" s="9" t="e"/>
-      <c r="AN33" s="9" t="e"/>
-      <c r="AO33" s="9" t="e"/>
-      <c r="AP33" s="9" t="e"/>
-      <c r="AQ33" s="9" t="e"/>
-      <c r="AR33" s="9" t="e"/>
-      <c r="AS33" s="9" t="e"/>
-      <c r="AT33" s="9" t="e"/>
     </row>
     <row r="34" ht="33" customHeight="true">
       <c r="A34" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I34" s="13" t="n">
         <v>125</v>
@@ -3790,70 +3499,63 @@
       <c r="AK34" s="9" t="e"/>
       <c r="AL34" s="9" t="e"/>
       <c r="AM34" s="9" t="e"/>
-      <c r="AN34" s="9" t="e"/>
-      <c r="AO34" s="9" t="e"/>
-      <c r="AP34" s="9" t="e"/>
-      <c r="AQ34" s="9" t="e"/>
-      <c r="AR34" s="9" t="e"/>
-      <c r="AS34" s="9" t="e"/>
-      <c r="AT34" s="9" t="e"/>
     </row>
     <row r="35" ht="33" customHeight="true">
       <c r="A35" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I35" s="16" t="n">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="J35" s="12" t="e"/>
       <c r="K35" s="16" t="n">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="L35" s="13" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M35" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N35" s="13" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O35" s="16" t="n">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P35" s="12" t="e"/>
       <c r="Q35" s="16" t="n">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="R35" s="13" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S35" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T35" s="13" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="U35" s="15" t="e"/>
       <c r="V35" s="15" t="e"/>
@@ -3874,38 +3576,31 @@
       <c r="AK35" s="9" t="e"/>
       <c r="AL35" s="9" t="e"/>
       <c r="AM35" s="9" t="e"/>
-      <c r="AN35" s="9" t="e"/>
-      <c r="AO35" s="9" t="e"/>
-      <c r="AP35" s="9" t="e"/>
-      <c r="AQ35" s="9" t="e"/>
-      <c r="AR35" s="9" t="e"/>
-      <c r="AS35" s="9" t="e"/>
-      <c r="AT35" s="9" t="e"/>
     </row>
     <row r="36" ht="33" customHeight="true">
       <c r="A36" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="F36" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I36" s="13" t="n">
         <v>22</v>
@@ -3958,70 +3653,63 @@
       <c r="AK36" s="9" t="e"/>
       <c r="AL36" s="9" t="e"/>
       <c r="AM36" s="9" t="e"/>
-      <c r="AN36" s="9" t="e"/>
-      <c r="AO36" s="9" t="e"/>
-      <c r="AP36" s="9" t="e"/>
-      <c r="AQ36" s="9" t="e"/>
-      <c r="AR36" s="9" t="e"/>
-      <c r="AS36" s="9" t="e"/>
-      <c r="AT36" s="9" t="e"/>
     </row>
     <row r="37" ht="33" customHeight="true">
       <c r="A37" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C37" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="F37" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I37" s="16" t="n">
-        <v>1780</v>
+        <v>1764</v>
       </c>
       <c r="J37" s="12" t="e"/>
       <c r="K37" s="16" t="n">
-        <v>1780</v>
+        <v>1764</v>
       </c>
       <c r="L37" s="13" t="n">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="M37" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N37" s="13" t="n">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="O37" s="16" t="n">
-        <v>1780</v>
+        <v>1764</v>
       </c>
       <c r="P37" s="12" t="e"/>
       <c r="Q37" s="16" t="n">
-        <v>1780</v>
+        <v>1764</v>
       </c>
       <c r="R37" s="13" t="n">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="S37" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T37" s="13" t="n">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="U37" s="15" t="e"/>
       <c r="V37" s="15" t="e"/>
@@ -4042,38 +3730,31 @@
       <c r="AK37" s="9" t="e"/>
       <c r="AL37" s="9" t="e"/>
       <c r="AM37" s="9" t="e"/>
-      <c r="AN37" s="9" t="e"/>
-      <c r="AO37" s="9" t="e"/>
-      <c r="AP37" s="9" t="e"/>
-      <c r="AQ37" s="9" t="e"/>
-      <c r="AR37" s="9" t="e"/>
-      <c r="AS37" s="9" t="e"/>
-      <c r="AT37" s="9" t="e"/>
     </row>
     <row r="38" ht="33" customHeight="true">
       <c r="A38" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D38" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>96</v>
-      </c>
       <c r="F38" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I38" s="13" t="n">
         <v>249</v>
@@ -4130,70 +3811,63 @@
       <c r="AK38" s="9" t="e"/>
       <c r="AL38" s="9" t="e"/>
       <c r="AM38" s="9" t="e"/>
-      <c r="AN38" s="9" t="e"/>
-      <c r="AO38" s="9" t="e"/>
-      <c r="AP38" s="9" t="e"/>
-      <c r="AQ38" s="9" t="e"/>
-      <c r="AR38" s="9" t="e"/>
-      <c r="AS38" s="9" t="e"/>
-      <c r="AT38" s="9" t="e"/>
     </row>
     <row r="39" ht="33" customHeight="true">
       <c r="A39" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I39" s="13" t="n">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="J39" s="12" t="e"/>
       <c r="K39" s="13" t="n">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="L39" s="13" t="n">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="M39" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N39" s="13" t="n">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="O39" s="13" t="n">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="P39" s="12" t="e"/>
       <c r="Q39" s="13" t="n">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="R39" s="13" t="n">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="S39" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T39" s="13" t="n">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="U39" s="15" t="e"/>
       <c r="V39" s="15" t="e"/>
@@ -4214,38 +3888,31 @@
       <c r="AK39" s="9" t="e"/>
       <c r="AL39" s="9" t="e"/>
       <c r="AM39" s="9" t="e"/>
-      <c r="AN39" s="9" t="e"/>
-      <c r="AO39" s="9" t="e"/>
-      <c r="AP39" s="9" t="e"/>
-      <c r="AQ39" s="9" t="e"/>
-      <c r="AR39" s="9" t="e"/>
-      <c r="AS39" s="9" t="e"/>
-      <c r="AT39" s="9" t="e"/>
     </row>
     <row r="40" ht="33" customHeight="true">
       <c r="A40" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I40" s="13" t="n">
         <v>86</v>
@@ -4298,70 +3965,63 @@
       <c r="AK40" s="9" t="e"/>
       <c r="AL40" s="9" t="e"/>
       <c r="AM40" s="9" t="e"/>
-      <c r="AN40" s="9" t="e"/>
-      <c r="AO40" s="9" t="e"/>
-      <c r="AP40" s="9" t="e"/>
-      <c r="AQ40" s="9" t="e"/>
-      <c r="AR40" s="9" t="e"/>
-      <c r="AS40" s="9" t="e"/>
-      <c r="AT40" s="9" t="e"/>
     </row>
     <row r="41" ht="33" customHeight="true">
       <c r="A41" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I41" s="13" t="n">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="J41" s="12" t="e"/>
       <c r="K41" s="13" t="n">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="L41" s="13" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M41" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N41" s="13" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O41" s="13" t="n">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="P41" s="12" t="e"/>
       <c r="Q41" s="13" t="n">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="R41" s="13" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="S41" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T41" s="13" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="U41" s="15" t="e"/>
       <c r="V41" s="15" t="e"/>
@@ -4382,38 +4042,31 @@
       <c r="AK41" s="9" t="e"/>
       <c r="AL41" s="9" t="e"/>
       <c r="AM41" s="9" t="e"/>
-      <c r="AN41" s="9" t="e"/>
-      <c r="AO41" s="9" t="e"/>
-      <c r="AP41" s="9" t="e"/>
-      <c r="AQ41" s="9" t="e"/>
-      <c r="AR41" s="9" t="e"/>
-      <c r="AS41" s="9" t="e"/>
-      <c r="AT41" s="9" t="e"/>
     </row>
     <row r="42" ht="33" customHeight="true">
       <c r="A42" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I42" s="13" t="n">
         <v>157</v>
@@ -4470,70 +4123,63 @@
       <c r="AK42" s="9" t="e"/>
       <c r="AL42" s="9" t="e"/>
       <c r="AM42" s="9" t="e"/>
-      <c r="AN42" s="9" t="e"/>
-      <c r="AO42" s="9" t="e"/>
-      <c r="AP42" s="9" t="e"/>
-      <c r="AQ42" s="9" t="e"/>
-      <c r="AR42" s="9" t="e"/>
-      <c r="AS42" s="9" t="e"/>
-      <c r="AT42" s="9" t="e"/>
     </row>
     <row r="43" ht="33" customHeight="true">
       <c r="A43" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I43" s="13" t="n">
-        <v>704</v>
+        <v>677</v>
       </c>
       <c r="J43" s="12" t="e"/>
       <c r="K43" s="13" t="n">
-        <v>704</v>
+        <v>677</v>
       </c>
       <c r="L43" s="13" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M43" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N43" s="13" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="O43" s="13" t="n">
-        <v>704</v>
+        <v>677</v>
       </c>
       <c r="P43" s="12" t="e"/>
       <c r="Q43" s="13" t="n">
-        <v>704</v>
+        <v>677</v>
       </c>
       <c r="R43" s="13" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="S43" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T43" s="13" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="U43" s="15" t="e"/>
       <c r="V43" s="15" t="e"/>
@@ -4554,38 +4200,31 @@
       <c r="AK43" s="9" t="e"/>
       <c r="AL43" s="9" t="e"/>
       <c r="AM43" s="9" t="e"/>
-      <c r="AN43" s="9" t="e"/>
-      <c r="AO43" s="9" t="e"/>
-      <c r="AP43" s="9" t="e"/>
-      <c r="AQ43" s="9" t="e"/>
-      <c r="AR43" s="9" t="e"/>
-      <c r="AS43" s="9" t="e"/>
-      <c r="AT43" s="9" t="e"/>
     </row>
     <row r="44" ht="33" customHeight="true">
       <c r="A44" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I44" s="13" t="n">
         <v>167</v>
@@ -4638,70 +4277,63 @@
       <c r="AK44" s="9" t="e"/>
       <c r="AL44" s="9" t="e"/>
       <c r="AM44" s="9" t="e"/>
-      <c r="AN44" s="9" t="e"/>
-      <c r="AO44" s="9" t="e"/>
-      <c r="AP44" s="9" t="e"/>
-      <c r="AQ44" s="9" t="e"/>
-      <c r="AR44" s="9" t="e"/>
-      <c r="AS44" s="9" t="e"/>
-      <c r="AT44" s="9" t="e"/>
     </row>
     <row r="45" ht="33" customHeight="true">
       <c r="A45" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I45" s="13" t="n">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="J45" s="12" t="e"/>
       <c r="K45" s="13" t="n">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="L45" s="13" t="n">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="M45" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N45" s="13" t="n">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="O45" s="13" t="n">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="P45" s="12" t="e"/>
       <c r="Q45" s="13" t="n">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="R45" s="13" t="n">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="S45" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T45" s="13" t="n">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="U45" s="15" t="e"/>
       <c r="V45" s="15" t="e"/>
@@ -4722,38 +4354,31 @@
       <c r="AK45" s="9" t="e"/>
       <c r="AL45" s="9" t="e"/>
       <c r="AM45" s="9" t="e"/>
-      <c r="AN45" s="9" t="e"/>
-      <c r="AO45" s="9" t="e"/>
-      <c r="AP45" s="9" t="e"/>
-      <c r="AQ45" s="9" t="e"/>
-      <c r="AR45" s="9" t="e"/>
-      <c r="AS45" s="9" t="e"/>
-      <c r="AT45" s="9" t="e"/>
     </row>
     <row r="46" ht="33" customHeight="true">
       <c r="A46" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I46" s="13" t="n">
         <v>55</v>
@@ -4806,70 +4431,63 @@
       <c r="AK46" s="9" t="e"/>
       <c r="AL46" s="9" t="e"/>
       <c r="AM46" s="9" t="e"/>
-      <c r="AN46" s="9" t="e"/>
-      <c r="AO46" s="9" t="e"/>
-      <c r="AP46" s="9" t="e"/>
-      <c r="AQ46" s="9" t="e"/>
-      <c r="AR46" s="9" t="e"/>
-      <c r="AS46" s="9" t="e"/>
-      <c r="AT46" s="9" t="e"/>
     </row>
     <row r="47" ht="33" customHeight="true">
       <c r="A47" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B47" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>107</v>
-      </c>
       <c r="F47" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I47" s="13" t="n">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="J47" s="12" t="e"/>
       <c r="K47" s="13" t="n">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="L47" s="13" t="n">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="M47" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N47" s="13" t="n">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="O47" s="13" t="n">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="P47" s="12" t="e"/>
       <c r="Q47" s="13" t="n">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="R47" s="13" t="n">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="S47" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T47" s="13" t="n">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="U47" s="15" t="e"/>
       <c r="V47" s="15" t="e"/>
@@ -4890,38 +4508,31 @@
       <c r="AK47" s="9" t="e"/>
       <c r="AL47" s="9" t="e"/>
       <c r="AM47" s="9" t="e"/>
-      <c r="AN47" s="9" t="e"/>
-      <c r="AO47" s="9" t="e"/>
-      <c r="AP47" s="9" t="e"/>
-      <c r="AQ47" s="9" t="e"/>
-      <c r="AR47" s="9" t="e"/>
-      <c r="AS47" s="9" t="e"/>
-      <c r="AT47" s="9" t="e"/>
     </row>
     <row r="48" ht="33" customHeight="true">
       <c r="A48" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D48" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="F48" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I48" s="13" t="n">
         <v>61</v>
@@ -4974,70 +4585,63 @@
       <c r="AK48" s="9" t="e"/>
       <c r="AL48" s="9" t="e"/>
       <c r="AM48" s="9" t="e"/>
-      <c r="AN48" s="9" t="e"/>
-      <c r="AO48" s="9" t="e"/>
-      <c r="AP48" s="9" t="e"/>
-      <c r="AQ48" s="9" t="e"/>
-      <c r="AR48" s="9" t="e"/>
-      <c r="AS48" s="9" t="e"/>
-      <c r="AT48" s="9" t="e"/>
     </row>
     <row r="49" ht="33" customHeight="true">
       <c r="A49" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I49" s="16" t="n">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="J49" s="12" t="e"/>
       <c r="K49" s="16" t="n">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="L49" s="13" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="M49" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N49" s="13" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="O49" s="16" t="n">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="P49" s="12" t="e"/>
       <c r="Q49" s="16" t="n">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="R49" s="13" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="S49" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T49" s="13" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="U49" s="15" t="e"/>
       <c r="V49" s="15" t="e"/>
@@ -5058,38 +4662,31 @@
       <c r="AK49" s="9" t="e"/>
       <c r="AL49" s="9" t="e"/>
       <c r="AM49" s="9" t="e"/>
-      <c r="AN49" s="9" t="e"/>
-      <c r="AO49" s="9" t="e"/>
-      <c r="AP49" s="9" t="e"/>
-      <c r="AQ49" s="9" t="e"/>
-      <c r="AR49" s="9" t="e"/>
-      <c r="AS49" s="9" t="e"/>
-      <c r="AT49" s="9" t="e"/>
     </row>
     <row r="50" ht="33" customHeight="true">
       <c r="A50" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I50" s="13" t="n">
         <v>11</v>
@@ -5142,70 +4739,63 @@
       <c r="AK50" s="9" t="e"/>
       <c r="AL50" s="9" t="e"/>
       <c r="AM50" s="9" t="e"/>
-      <c r="AN50" s="9" t="e"/>
-      <c r="AO50" s="9" t="e"/>
-      <c r="AP50" s="9" t="e"/>
-      <c r="AQ50" s="9" t="e"/>
-      <c r="AR50" s="9" t="e"/>
-      <c r="AS50" s="9" t="e"/>
-      <c r="AT50" s="9" t="e"/>
     </row>
     <row r="51" ht="33" customHeight="true">
       <c r="A51" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I51" s="13" t="n">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="J51" s="12" t="e"/>
       <c r="K51" s="13" t="n">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="L51" s="13" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="M51" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N51" s="13" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="O51" s="13" t="n">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="P51" s="12" t="e"/>
       <c r="Q51" s="13" t="n">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="R51" s="13" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="S51" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T51" s="13" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="U51" s="15" t="e"/>
       <c r="V51" s="15" t="e"/>
@@ -5226,38 +4816,31 @@
       <c r="AK51" s="9" t="e"/>
       <c r="AL51" s="9" t="e"/>
       <c r="AM51" s="9" t="e"/>
-      <c r="AN51" s="9" t="e"/>
-      <c r="AO51" s="9" t="e"/>
-      <c r="AP51" s="9" t="e"/>
-      <c r="AQ51" s="9" t="e"/>
-      <c r="AR51" s="9" t="e"/>
-      <c r="AS51" s="9" t="e"/>
-      <c r="AT51" s="9" t="e"/>
     </row>
     <row r="52" ht="33" customHeight="true">
       <c r="A52" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I52" s="13" t="n">
         <v>171</v>
@@ -5314,70 +4897,63 @@
       <c r="AK52" s="9" t="e"/>
       <c r="AL52" s="9" t="e"/>
       <c r="AM52" s="9" t="e"/>
-      <c r="AN52" s="9" t="e"/>
-      <c r="AO52" s="9" t="e"/>
-      <c r="AP52" s="9" t="e"/>
-      <c r="AQ52" s="9" t="e"/>
-      <c r="AR52" s="9" t="e"/>
-      <c r="AS52" s="9" t="e"/>
-      <c r="AT52" s="9" t="e"/>
     </row>
     <row r="53" ht="33" customHeight="true">
       <c r="A53" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I53" s="13" t="n">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="J53" s="12" t="e"/>
       <c r="K53" s="13" t="n">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="L53" s="13" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M53" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N53" s="13" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="O53" s="13" t="n">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="P53" s="12" t="e"/>
       <c r="Q53" s="13" t="n">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="R53" s="13" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="S53" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T53" s="13" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="U53" s="15" t="e"/>
       <c r="V53" s="15" t="e"/>
@@ -5398,38 +4974,31 @@
       <c r="AK53" s="9" t="e"/>
       <c r="AL53" s="9" t="e"/>
       <c r="AM53" s="9" t="e"/>
-      <c r="AN53" s="9" t="e"/>
-      <c r="AO53" s="9" t="e"/>
-      <c r="AP53" s="9" t="e"/>
-      <c r="AQ53" s="9" t="e"/>
-      <c r="AR53" s="9" t="e"/>
-      <c r="AS53" s="9" t="e"/>
-      <c r="AT53" s="9" t="e"/>
     </row>
     <row r="54" ht="33" customHeight="true">
       <c r="A54" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I54" s="13" t="n">
         <v>45</v>
@@ -5482,70 +5051,63 @@
       <c r="AK54" s="9" t="e"/>
       <c r="AL54" s="9" t="e"/>
       <c r="AM54" s="9" t="e"/>
-      <c r="AN54" s="9" t="e"/>
-      <c r="AO54" s="9" t="e"/>
-      <c r="AP54" s="9" t="e"/>
-      <c r="AQ54" s="9" t="e"/>
-      <c r="AR54" s="9" t="e"/>
-      <c r="AS54" s="9" t="e"/>
-      <c r="AT54" s="9" t="e"/>
     </row>
     <row r="55" ht="33" customHeight="true">
       <c r="A55" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I55" s="16" t="n">
-        <v>1124</v>
+        <v>1116</v>
       </c>
       <c r="J55" s="12" t="e"/>
       <c r="K55" s="16" t="n">
-        <v>1124</v>
+        <v>1116</v>
       </c>
       <c r="L55" s="13" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M55" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N55" s="13" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="O55" s="16" t="n">
-        <v>1124</v>
+        <v>1116</v>
       </c>
       <c r="P55" s="12" t="e"/>
       <c r="Q55" s="16" t="n">
-        <v>1124</v>
+        <v>1116</v>
       </c>
       <c r="R55" s="13" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="S55" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T55" s="13" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="U55" s="15" t="e"/>
       <c r="V55" s="15" t="e"/>
@@ -5566,38 +5128,31 @@
       <c r="AK55" s="9" t="e"/>
       <c r="AL55" s="9" t="e"/>
       <c r="AM55" s="9" t="e"/>
-      <c r="AN55" s="9" t="e"/>
-      <c r="AO55" s="9" t="e"/>
-      <c r="AP55" s="9" t="e"/>
-      <c r="AQ55" s="9" t="e"/>
-      <c r="AR55" s="9" t="e"/>
-      <c r="AS55" s="9" t="e"/>
-      <c r="AT55" s="9" t="e"/>
     </row>
     <row r="56" ht="33" customHeight="true">
       <c r="A56" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I56" s="13" t="n">
         <v>35</v>
@@ -5650,70 +5205,63 @@
       <c r="AK56" s="9" t="e"/>
       <c r="AL56" s="9" t="e"/>
       <c r="AM56" s="9" t="e"/>
-      <c r="AN56" s="9" t="e"/>
-      <c r="AO56" s="9" t="e"/>
-      <c r="AP56" s="9" t="e"/>
-      <c r="AQ56" s="9" t="e"/>
-      <c r="AR56" s="9" t="e"/>
-      <c r="AS56" s="9" t="e"/>
-      <c r="AT56" s="9" t="e"/>
     </row>
     <row r="57" ht="33" customHeight="true">
       <c r="A57" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I57" s="16" t="n">
-        <v>1108</v>
+        <v>1087</v>
       </c>
       <c r="J57" s="12" t="e"/>
       <c r="K57" s="16" t="n">
-        <v>1108</v>
+        <v>1087</v>
       </c>
       <c r="L57" s="13" t="n">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="M57" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N57" s="13" t="n">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="O57" s="16" t="n">
-        <v>1108</v>
+        <v>1087</v>
       </c>
       <c r="P57" s="12" t="e"/>
       <c r="Q57" s="16" t="n">
-        <v>1108</v>
+        <v>1087</v>
       </c>
       <c r="R57" s="13" t="n">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="S57" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T57" s="13" t="n">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="U57" s="15" t="e"/>
       <c r="V57" s="15" t="e"/>
@@ -5734,38 +5282,31 @@
       <c r="AK57" s="9" t="e"/>
       <c r="AL57" s="9" t="e"/>
       <c r="AM57" s="9" t="e"/>
-      <c r="AN57" s="9" t="e"/>
-      <c r="AO57" s="9" t="e"/>
-      <c r="AP57" s="9" t="e"/>
-      <c r="AQ57" s="9" t="e"/>
-      <c r="AR57" s="9" t="e"/>
-      <c r="AS57" s="9" t="e"/>
-      <c r="AT57" s="9" t="e"/>
     </row>
     <row r="58" ht="33" customHeight="true">
       <c r="A58" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I58" s="13" t="n">
         <v>295</v>
@@ -5822,70 +5363,63 @@
       <c r="AK58" s="9" t="e"/>
       <c r="AL58" s="9" t="e"/>
       <c r="AM58" s="9" t="e"/>
-      <c r="AN58" s="9" t="e"/>
-      <c r="AO58" s="9" t="e"/>
-      <c r="AP58" s="9" t="e"/>
-      <c r="AQ58" s="9" t="e"/>
-      <c r="AR58" s="9" t="e"/>
-      <c r="AS58" s="9" t="e"/>
-      <c r="AT58" s="9" t="e"/>
     </row>
     <row r="59" ht="33" customHeight="true">
       <c r="A59" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I59" s="16" t="n">
-        <v>1101</v>
+        <v>1090</v>
       </c>
       <c r="J59" s="12" t="e"/>
       <c r="K59" s="16" t="n">
-        <v>1101</v>
+        <v>1090</v>
       </c>
       <c r="L59" s="13" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M59" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N59" s="13" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="O59" s="16" t="n">
-        <v>1101</v>
+        <v>1090</v>
       </c>
       <c r="P59" s="12" t="e"/>
       <c r="Q59" s="16" t="n">
-        <v>1101</v>
+        <v>1090</v>
       </c>
       <c r="R59" s="13" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="S59" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T59" s="13" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="U59" s="15" t="e"/>
       <c r="V59" s="15" t="e"/>
@@ -5906,38 +5440,31 @@
       <c r="AK59" s="9" t="e"/>
       <c r="AL59" s="9" t="e"/>
       <c r="AM59" s="9" t="e"/>
-      <c r="AN59" s="9" t="e"/>
-      <c r="AO59" s="9" t="e"/>
-      <c r="AP59" s="9" t="e"/>
-      <c r="AQ59" s="9" t="e"/>
-      <c r="AR59" s="9" t="e"/>
-      <c r="AS59" s="9" t="e"/>
-      <c r="AT59" s="9" t="e"/>
     </row>
     <row r="60" ht="33" customHeight="true">
       <c r="A60" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I60" s="13" t="n">
         <v>93</v>
@@ -5994,70 +5521,63 @@
       <c r="AK60" s="9" t="e"/>
       <c r="AL60" s="9" t="e"/>
       <c r="AM60" s="9" t="e"/>
-      <c r="AN60" s="9" t="e"/>
-      <c r="AO60" s="9" t="e"/>
-      <c r="AP60" s="9" t="e"/>
-      <c r="AQ60" s="9" t="e"/>
-      <c r="AR60" s="9" t="e"/>
-      <c r="AS60" s="9" t="e"/>
-      <c r="AT60" s="9" t="e"/>
     </row>
     <row r="61" ht="33" customHeight="true">
       <c r="A61" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I61" s="13" t="n">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="J61" s="12" t="e"/>
       <c r="K61" s="13" t="n">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="L61" s="13" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M61" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N61" s="13" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="O61" s="13" t="n">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="P61" s="12" t="e"/>
       <c r="Q61" s="13" t="n">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="R61" s="13" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="S61" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T61" s="13" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="U61" s="15" t="e"/>
       <c r="V61" s="15" t="e"/>
@@ -6078,38 +5598,31 @@
       <c r="AK61" s="9" t="e"/>
       <c r="AL61" s="9" t="e"/>
       <c r="AM61" s="9" t="e"/>
-      <c r="AN61" s="9" t="e"/>
-      <c r="AO61" s="9" t="e"/>
-      <c r="AP61" s="9" t="e"/>
-      <c r="AQ61" s="9" t="e"/>
-      <c r="AR61" s="9" t="e"/>
-      <c r="AS61" s="9" t="e"/>
-      <c r="AT61" s="9" t="e"/>
     </row>
     <row r="62" ht="33" customHeight="true">
       <c r="A62" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I62" s="13" t="n">
         <v>21</v>
@@ -6162,70 +5675,63 @@
       <c r="AK62" s="9" t="e"/>
       <c r="AL62" s="9" t="e"/>
       <c r="AM62" s="9" t="e"/>
-      <c r="AN62" s="9" t="e"/>
-      <c r="AO62" s="9" t="e"/>
-      <c r="AP62" s="9" t="e"/>
-      <c r="AQ62" s="9" t="e"/>
-      <c r="AR62" s="9" t="e"/>
-      <c r="AS62" s="9" t="e"/>
-      <c r="AT62" s="9" t="e"/>
     </row>
     <row r="63" ht="33" customHeight="true">
       <c r="A63" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I63" s="13" t="n">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J63" s="12" t="e"/>
       <c r="K63" s="13" t="n">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L63" s="13" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M63" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N63" s="13" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O63" s="13" t="n">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="P63" s="12" t="e"/>
       <c r="Q63" s="13" t="n">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="R63" s="13" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="S63" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T63" s="13" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="U63" s="15" t="e"/>
       <c r="V63" s="15" t="e"/>
@@ -6246,38 +5752,31 @@
       <c r="AK63" s="9" t="e"/>
       <c r="AL63" s="9" t="e"/>
       <c r="AM63" s="9" t="e"/>
-      <c r="AN63" s="9" t="e"/>
-      <c r="AO63" s="9" t="e"/>
-      <c r="AP63" s="9" t="e"/>
-      <c r="AQ63" s="9" t="e"/>
-      <c r="AR63" s="9" t="e"/>
-      <c r="AS63" s="9" t="e"/>
-      <c r="AT63" s="9" t="e"/>
     </row>
     <row r="64" ht="33" customHeight="true">
       <c r="A64" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I64" s="13" t="n">
         <v>110</v>
@@ -6334,70 +5833,63 @@
       <c r="AK64" s="9" t="e"/>
       <c r="AL64" s="9" t="e"/>
       <c r="AM64" s="9" t="e"/>
-      <c r="AN64" s="9" t="e"/>
-      <c r="AO64" s="9" t="e"/>
-      <c r="AP64" s="9" t="e"/>
-      <c r="AQ64" s="9" t="e"/>
-      <c r="AR64" s="9" t="e"/>
-      <c r="AS64" s="9" t="e"/>
-      <c r="AT64" s="9" t="e"/>
     </row>
     <row r="65" ht="33" customHeight="true">
       <c r="A65" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I65" s="11" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J65" s="12" t="e"/>
       <c r="K65" s="13" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="L65" s="11" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M65" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N65" s="13" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="O65" s="11" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="P65" s="12" t="e"/>
       <c r="Q65" s="13" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="R65" s="11" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="S65" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T65" s="13" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="U65" s="15" t="e"/>
       <c r="V65" s="15" t="e"/>
@@ -6418,38 +5910,31 @@
       <c r="AK65" s="9" t="e"/>
       <c r="AL65" s="9" t="e"/>
       <c r="AM65" s="9" t="e"/>
-      <c r="AN65" s="9" t="e"/>
-      <c r="AO65" s="9" t="e"/>
-      <c r="AP65" s="9" t="e"/>
-      <c r="AQ65" s="9" t="e"/>
-      <c r="AR65" s="9" t="e"/>
-      <c r="AS65" s="9" t="e"/>
-      <c r="AT65" s="9" t="e"/>
     </row>
     <row r="66" ht="33" customHeight="true">
       <c r="A66" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I66" s="13" t="n">
         <v>107</v>
@@ -6502,70 +5987,63 @@
       <c r="AK66" s="9" t="e"/>
       <c r="AL66" s="9" t="e"/>
       <c r="AM66" s="9" t="e"/>
-      <c r="AN66" s="9" t="e"/>
-      <c r="AO66" s="9" t="e"/>
-      <c r="AP66" s="9" t="e"/>
-      <c r="AQ66" s="9" t="e"/>
-      <c r="AR66" s="9" t="e"/>
-      <c r="AS66" s="9" t="e"/>
-      <c r="AT66" s="9" t="e"/>
     </row>
     <row r="67" ht="33" customHeight="true">
       <c r="A67" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I67" s="13" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J67" s="12" t="e"/>
       <c r="K67" s="13" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L67" s="13" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M67" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N67" s="13" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O67" s="13" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P67" s="12" t="e"/>
       <c r="Q67" s="13" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="R67" s="13" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S67" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T67" s="13" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U67" s="15" t="e"/>
       <c r="V67" s="15" t="e"/>
@@ -6586,38 +6064,31 @@
       <c r="AK67" s="9" t="e"/>
       <c r="AL67" s="9" t="e"/>
       <c r="AM67" s="9" t="e"/>
-      <c r="AN67" s="9" t="e"/>
-      <c r="AO67" s="9" t="e"/>
-      <c r="AP67" s="9" t="e"/>
-      <c r="AQ67" s="9" t="e"/>
-      <c r="AR67" s="9" t="e"/>
-      <c r="AS67" s="9" t="e"/>
-      <c r="AT67" s="9" t="e"/>
     </row>
     <row r="68" ht="33" customHeight="true">
       <c r="A68" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I68" s="13" t="n">
         <v>13</v>
@@ -6670,70 +6141,63 @@
       <c r="AK68" s="9" t="e"/>
       <c r="AL68" s="9" t="e"/>
       <c r="AM68" s="9" t="e"/>
-      <c r="AN68" s="9" t="e"/>
-      <c r="AO68" s="9" t="e"/>
-      <c r="AP68" s="9" t="e"/>
-      <c r="AQ68" s="9" t="e"/>
-      <c r="AR68" s="9" t="e"/>
-      <c r="AS68" s="9" t="e"/>
-      <c r="AT68" s="9" t="e"/>
     </row>
     <row r="69" ht="33" customHeight="true">
       <c r="A69" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I69" s="13" t="n">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="J69" s="12" t="e"/>
       <c r="K69" s="13" t="n">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L69" s="13" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M69" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N69" s="13" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="O69" s="13" t="n">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="P69" s="12" t="e"/>
       <c r="Q69" s="13" t="n">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="R69" s="13" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="S69" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T69" s="13" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="U69" s="15" t="e"/>
       <c r="V69" s="15" t="e"/>
@@ -6754,38 +6218,31 @@
       <c r="AK69" s="9" t="e"/>
       <c r="AL69" s="9" t="e"/>
       <c r="AM69" s="9" t="e"/>
-      <c r="AN69" s="9" t="e"/>
-      <c r="AO69" s="9" t="e"/>
-      <c r="AP69" s="9" t="e"/>
-      <c r="AQ69" s="9" t="e"/>
-      <c r="AR69" s="9" t="e"/>
-      <c r="AS69" s="9" t="e"/>
-      <c r="AT69" s="9" t="e"/>
     </row>
     <row r="70" ht="33" customHeight="true">
       <c r="A70" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I70" s="13" t="n">
         <v>65</v>
@@ -6838,70 +6295,63 @@
       <c r="AK70" s="9" t="e"/>
       <c r="AL70" s="9" t="e"/>
       <c r="AM70" s="9" t="e"/>
-      <c r="AN70" s="9" t="e"/>
-      <c r="AO70" s="9" t="e"/>
-      <c r="AP70" s="9" t="e"/>
-      <c r="AQ70" s="9" t="e"/>
-      <c r="AR70" s="9" t="e"/>
-      <c r="AS70" s="9" t="e"/>
-      <c r="AT70" s="9" t="e"/>
     </row>
     <row r="71" ht="33" customHeight="true">
       <c r="A71" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I71" s="13" t="n">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="J71" s="12" t="e"/>
       <c r="K71" s="13" t="n">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="L71" s="13" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M71" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N71" s="13" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="O71" s="13" t="n">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="P71" s="12" t="e"/>
       <c r="Q71" s="13" t="n">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="R71" s="13" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="S71" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T71" s="13" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="U71" s="15" t="e"/>
       <c r="V71" s="15" t="e"/>
@@ -6922,70 +6372,63 @@
       <c r="AK71" s="9" t="e"/>
       <c r="AL71" s="9" t="e"/>
       <c r="AM71" s="9" t="e"/>
-      <c r="AN71" s="9" t="e"/>
-      <c r="AO71" s="9" t="e"/>
-      <c r="AP71" s="9" t="e"/>
-      <c r="AQ71" s="9" t="e"/>
-      <c r="AR71" s="9" t="e"/>
-      <c r="AS71" s="9" t="e"/>
-      <c r="AT71" s="9" t="e"/>
     </row>
     <row r="72" ht="33" customHeight="true">
       <c r="A72" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I72" s="13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J72" s="12" t="e"/>
       <c r="K72" s="13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L72" s="13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M72" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N72" s="13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O72" s="13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P72" s="12" t="e"/>
       <c r="Q72" s="13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R72" s="13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S72" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T72" s="13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U72" s="15" t="e"/>
       <c r="V72" s="15" t="e"/>
@@ -7006,38 +6449,31 @@
       <c r="AK72" s="9" t="e"/>
       <c r="AL72" s="9" t="e"/>
       <c r="AM72" s="9" t="e"/>
-      <c r="AN72" s="9" t="e"/>
-      <c r="AO72" s="9" t="e"/>
-      <c r="AP72" s="9" t="e"/>
-      <c r="AQ72" s="9" t="e"/>
-      <c r="AR72" s="9" t="e"/>
-      <c r="AS72" s="9" t="e"/>
-      <c r="AT72" s="9" t="e"/>
     </row>
     <row r="73" ht="33" customHeight="true">
       <c r="A73" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I73" s="13" t="n">
         <v>50</v>
@@ -7094,70 +6530,63 @@
       <c r="AK73" s="9" t="e"/>
       <c r="AL73" s="9" t="e"/>
       <c r="AM73" s="9" t="e"/>
-      <c r="AN73" s="9" t="e"/>
-      <c r="AO73" s="9" t="e"/>
-      <c r="AP73" s="9" t="e"/>
-      <c r="AQ73" s="9" t="e"/>
-      <c r="AR73" s="9" t="e"/>
-      <c r="AS73" s="9" t="e"/>
-      <c r="AT73" s="9" t="e"/>
     </row>
     <row r="74" ht="33" customHeight="true">
       <c r="A74" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I74" s="13" t="n">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="J74" s="12" t="e"/>
       <c r="K74" s="13" t="n">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="L74" s="13" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M74" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N74" s="13" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="O74" s="13" t="n">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="P74" s="12" t="e"/>
       <c r="Q74" s="13" t="n">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="R74" s="13" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="S74" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T74" s="13" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="U74" s="15" t="e"/>
       <c r="V74" s="15" t="e"/>
@@ -7178,70 +6607,63 @@
       <c r="AK74" s="9" t="e"/>
       <c r="AL74" s="9" t="e"/>
       <c r="AM74" s="9" t="e"/>
-      <c r="AN74" s="9" t="e"/>
-      <c r="AO74" s="9" t="e"/>
-      <c r="AP74" s="9" t="e"/>
-      <c r="AQ74" s="9" t="e"/>
-      <c r="AR74" s="9" t="e"/>
-      <c r="AS74" s="9" t="e"/>
-      <c r="AT74" s="9" t="e"/>
     </row>
     <row r="75" ht="33" customHeight="true">
       <c r="A75" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I75" s="13" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J75" s="12" t="e"/>
       <c r="K75" s="13" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L75" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M75" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N75" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O75" s="13" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P75" s="12" t="e"/>
       <c r="Q75" s="13" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="R75" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S75" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T75" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U75" s="15" t="e"/>
       <c r="V75" s="15" t="e"/>
@@ -7262,38 +6684,31 @@
       <c r="AK75" s="9" t="e"/>
       <c r="AL75" s="9" t="e"/>
       <c r="AM75" s="9" t="e"/>
-      <c r="AN75" s="9" t="e"/>
-      <c r="AO75" s="9" t="e"/>
-      <c r="AP75" s="9" t="e"/>
-      <c r="AQ75" s="9" t="e"/>
-      <c r="AR75" s="9" t="e"/>
-      <c r="AS75" s="9" t="e"/>
-      <c r="AT75" s="9" t="e"/>
     </row>
     <row r="76" ht="33" customHeight="true">
       <c r="A76" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I76" s="13" t="n">
         <v>394</v>
@@ -7346,38 +6761,31 @@
       <c r="AK76" s="9" t="e"/>
       <c r="AL76" s="9" t="e"/>
       <c r="AM76" s="9" t="e"/>
-      <c r="AN76" s="9" t="e"/>
-      <c r="AO76" s="9" t="e"/>
-      <c r="AP76" s="9" t="e"/>
-      <c r="AQ76" s="9" t="e"/>
-      <c r="AR76" s="9" t="e"/>
-      <c r="AS76" s="9" t="e"/>
-      <c r="AT76" s="9" t="e"/>
     </row>
     <row r="77" ht="33" customHeight="true">
       <c r="A77" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I77" s="13" t="n">
         <v>210</v>
@@ -7430,38 +6838,31 @@
       <c r="AK77" s="9" t="e"/>
       <c r="AL77" s="9" t="e"/>
       <c r="AM77" s="9" t="e"/>
-      <c r="AN77" s="9" t="e"/>
-      <c r="AO77" s="9" t="e"/>
-      <c r="AP77" s="9" t="e"/>
-      <c r="AQ77" s="9" t="e"/>
-      <c r="AR77" s="9" t="e"/>
-      <c r="AS77" s="9" t="e"/>
-      <c r="AT77" s="9" t="e"/>
     </row>
     <row r="78" ht="33" customHeight="true">
       <c r="A78" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I78" s="13" t="n">
         <v>102</v>
@@ -7514,38 +6915,31 @@
       <c r="AK78" s="9" t="e"/>
       <c r="AL78" s="9" t="e"/>
       <c r="AM78" s="9" t="e"/>
-      <c r="AN78" s="9" t="e"/>
-      <c r="AO78" s="9" t="e"/>
-      <c r="AP78" s="9" t="e"/>
-      <c r="AQ78" s="9" t="e"/>
-      <c r="AR78" s="9" t="e"/>
-      <c r="AS78" s="9" t="e"/>
-      <c r="AT78" s="9" t="e"/>
     </row>
     <row r="79" ht="33" customHeight="true">
       <c r="A79" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I79" s="13" t="n">
         <v>36</v>
@@ -7602,38 +6996,31 @@
       <c r="AK79" s="9" t="e"/>
       <c r="AL79" s="9" t="e"/>
       <c r="AM79" s="9" t="e"/>
-      <c r="AN79" s="9" t="e"/>
-      <c r="AO79" s="9" t="e"/>
-      <c r="AP79" s="9" t="e"/>
-      <c r="AQ79" s="9" t="e"/>
-      <c r="AR79" s="9" t="e"/>
-      <c r="AS79" s="9" t="e"/>
-      <c r="AT79" s="9" t="e"/>
     </row>
     <row r="80" ht="33" customHeight="true">
       <c r="A80" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I80" s="13" t="n">
         <v>5</v>
@@ -7690,38 +7077,31 @@
       <c r="AK80" s="9" t="e"/>
       <c r="AL80" s="9" t="e"/>
       <c r="AM80" s="9" t="e"/>
-      <c r="AN80" s="9" t="e"/>
-      <c r="AO80" s="9" t="e"/>
-      <c r="AP80" s="9" t="e"/>
-      <c r="AQ80" s="9" t="e"/>
-      <c r="AR80" s="9" t="e"/>
-      <c r="AS80" s="9" t="e"/>
-      <c r="AT80" s="9" t="e"/>
     </row>
     <row r="81" ht="33" customHeight="true">
       <c r="A81" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I81" s="13" t="n">
         <v>153</v>
@@ -7774,38 +7154,31 @@
       <c r="AK81" s="9" t="e"/>
       <c r="AL81" s="9" t="e"/>
       <c r="AM81" s="9" t="e"/>
-      <c r="AN81" s="9" t="e"/>
-      <c r="AO81" s="9" t="e"/>
-      <c r="AP81" s="9" t="e"/>
-      <c r="AQ81" s="9" t="e"/>
-      <c r="AR81" s="9" t="e"/>
-      <c r="AS81" s="9" t="e"/>
-      <c r="AT81" s="9" t="e"/>
     </row>
     <row r="82" ht="33" customHeight="true">
       <c r="A82" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I82" s="13" t="n">
         <v>45</v>
@@ -7862,72 +7235,65 @@
       <c r="AK82" s="9" t="e"/>
       <c r="AL82" s="9" t="e"/>
       <c r="AM82" s="9" t="e"/>
-      <c r="AN82" s="9" t="e"/>
-      <c r="AO82" s="9" t="e"/>
-      <c r="AP82" s="9" t="e"/>
-      <c r="AQ82" s="9" t="e"/>
-      <c r="AR82" s="9" t="e"/>
-      <c r="AS82" s="9" t="e"/>
-      <c r="AT82" s="9" t="e"/>
     </row>
     <row r="83" ht="22" customHeight="true">
       <c r="A83" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B83" s="9" t="e"/>
       <c r="C83" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I83" s="16" t="n">
-        <v>11665</v>
+        <v>12180</v>
       </c>
       <c r="J83" s="16" t="n">
-        <v>11665</v>
+        <v>12180</v>
       </c>
       <c r="K83" s="13" t="n">
         <v>0</v>
       </c>
       <c r="L83" s="13" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M83" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N83" s="13" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O83" s="16" t="n">
-        <v>11665</v>
+        <v>12180</v>
       </c>
       <c r="P83" s="16" t="n">
-        <v>11665</v>
+        <v>12180</v>
       </c>
       <c r="Q83" s="13" t="n">
         <v>0</v>
       </c>
       <c r="R83" s="13" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="S83" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T83" s="13" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="U83" s="15" t="e"/>
       <c r="V83" s="15" t="e"/>
@@ -7948,36 +7314,29 @@
       <c r="AK83" s="9" t="e"/>
       <c r="AL83" s="9" t="e"/>
       <c r="AM83" s="9" t="e"/>
-      <c r="AN83" s="9" t="e"/>
-      <c r="AO83" s="9" t="e"/>
-      <c r="AP83" s="9" t="e"/>
-      <c r="AQ83" s="9" t="e"/>
-      <c r="AR83" s="9" t="e"/>
-      <c r="AS83" s="9" t="e"/>
-      <c r="AT83" s="9" t="e"/>
     </row>
     <row r="84" ht="22" customHeight="true">
       <c r="A84" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B84" s="9" t="e"/>
       <c r="C84" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I84" s="11" t="n">
         <v>0</v>
@@ -8030,36 +7389,29 @@
       <c r="AK84" s="9" t="e"/>
       <c r="AL84" s="9" t="e"/>
       <c r="AM84" s="9" t="e"/>
-      <c r="AN84" s="9" t="e"/>
-      <c r="AO84" s="9" t="e"/>
-      <c r="AP84" s="9" t="e"/>
-      <c r="AQ84" s="9" t="e"/>
-      <c r="AR84" s="9" t="e"/>
-      <c r="AS84" s="9" t="e"/>
-      <c r="AT84" s="9" t="e"/>
     </row>
     <row r="85" ht="22" customHeight="true">
       <c r="A85" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B85" s="9" t="e"/>
       <c r="C85" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I85" s="16" t="n">
         <v>1125</v>
@@ -8116,36 +7468,29 @@
       <c r="AK85" s="9" t="e"/>
       <c r="AL85" s="9" t="e"/>
       <c r="AM85" s="9" t="e"/>
-      <c r="AN85" s="9" t="e"/>
-      <c r="AO85" s="9" t="e"/>
-      <c r="AP85" s="9" t="e"/>
-      <c r="AQ85" s="9" t="e"/>
-      <c r="AR85" s="9" t="e"/>
-      <c r="AS85" s="9" t="e"/>
-      <c r="AT85" s="9" t="e"/>
     </row>
     <row r="86" ht="22" customHeight="true">
       <c r="A86" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B86" s="9" t="e"/>
       <c r="C86" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I86" s="16" t="n">
         <v>4964</v>
@@ -8157,13 +7502,13 @@
         <v>0</v>
       </c>
       <c r="L86" s="13" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M86" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N86" s="13" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O86" s="16" t="n">
         <v>4964</v>
@@ -8175,13 +7520,13 @@
         <v>0</v>
       </c>
       <c r="R86" s="13" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="S86" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T86" s="13" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="U86" s="15" t="e"/>
       <c r="V86" s="15" t="e"/>
@@ -8202,93 +7547,80 @@
       <c r="AK86" s="9" t="e"/>
       <c r="AL86" s="9" t="e"/>
       <c r="AM86" s="9" t="e"/>
-      <c r="AN86" s="9" t="e"/>
-      <c r="AO86" s="9" t="e"/>
-      <c r="AP86" s="9" t="e"/>
-      <c r="AQ86" s="9" t="e"/>
-      <c r="AR86" s="9" t="e"/>
-      <c r="AS86" s="9" t="e"/>
-      <c r="AT86" s="9" t="e"/>
     </row>
     <row r="87" ht="22" customHeight="true">
       <c r="A87" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B87" s="9" t="e"/>
       <c r="C87" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I87" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" s="12" t="e"/>
+        <v>100</v>
+      </c>
+      <c r="J87" s="13" t="n">
+        <v>100</v>
+      </c>
       <c r="K87" s="13" t="n">
         <v>0</v>
       </c>
       <c r="L87" s="11" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M87" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N87" s="13" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O87" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" s="12" t="e"/>
+        <v>100</v>
+      </c>
+      <c r="P87" s="13" t="n">
+        <v>100</v>
+      </c>
       <c r="Q87" s="13" t="n">
         <v>0</v>
       </c>
       <c r="R87" s="11" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S87" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T87" s="13" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U87" s="13" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="V87" s="18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W87" s="19" t="n">
-        <v>31</v>
-      </c>
-      <c r="X87" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y87" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z87" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA87" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB87" s="20" t="n">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="X87" s="9" t="e"/>
+      <c r="Y87" s="9" t="e"/>
+      <c r="Z87" s="9" t="e"/>
+      <c r="AA87" s="9" t="e"/>
+      <c r="AB87" s="9" t="e"/>
       <c r="AC87" s="9" t="e"/>
       <c r="AD87" s="9" t="e"/>
       <c r="AE87" s="9" t="e"/>
@@ -8300,36 +7632,29 @@
       <c r="AK87" s="9" t="e"/>
       <c r="AL87" s="9" t="e"/>
       <c r="AM87" s="9" t="e"/>
-      <c r="AN87" s="9" t="e"/>
-      <c r="AO87" s="9" t="e"/>
-      <c r="AP87" s="9" t="e"/>
-      <c r="AQ87" s="9" t="e"/>
-      <c r="AR87" s="9" t="e"/>
-      <c r="AS87" s="9" t="e"/>
-      <c r="AT87" s="9" t="e"/>
     </row>
     <row r="88" ht="22" customHeight="true">
       <c r="A88" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B88" s="9" t="e"/>
       <c r="C88" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I88" s="16" t="n">
         <v>4881</v>
@@ -8341,13 +7666,13 @@
         <v>0</v>
       </c>
       <c r="L88" s="13" t="n">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="M88" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N88" s="13" t="n">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="O88" s="16" t="n">
         <v>4881</v>
@@ -8359,13 +7684,13 @@
         <v>0</v>
       </c>
       <c r="R88" s="13" t="n">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="S88" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T88" s="13" t="n">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="U88" s="15" t="e"/>
       <c r="V88" s="15" t="e"/>
@@ -8386,36 +7711,29 @@
       <c r="AK88" s="9" t="e"/>
       <c r="AL88" s="9" t="e"/>
       <c r="AM88" s="9" t="e"/>
-      <c r="AN88" s="9" t="e"/>
-      <c r="AO88" s="9" t="e"/>
-      <c r="AP88" s="9" t="e"/>
-      <c r="AQ88" s="9" t="e"/>
-      <c r="AR88" s="9" t="e"/>
-      <c r="AS88" s="9" t="e"/>
-      <c r="AT88" s="9" t="e"/>
     </row>
     <row r="89" ht="22" customHeight="true">
       <c r="A89" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B89" s="9" t="e"/>
       <c r="C89" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I89" s="16" t="n">
         <v>1510</v>
@@ -8472,36 +7790,29 @@
       <c r="AK89" s="9" t="e"/>
       <c r="AL89" s="9" t="e"/>
       <c r="AM89" s="9" t="e"/>
-      <c r="AN89" s="9" t="e"/>
-      <c r="AO89" s="9" t="e"/>
-      <c r="AP89" s="9" t="e"/>
-      <c r="AQ89" s="9" t="e"/>
-      <c r="AR89" s="9" t="e"/>
-      <c r="AS89" s="9" t="e"/>
-      <c r="AT89" s="9" t="e"/>
     </row>
     <row r="90" ht="22" customHeight="true">
       <c r="A90" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B90" s="9" t="e"/>
       <c r="C90" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I90" s="16" t="n">
         <v>5703</v>
@@ -8512,14 +7823,14 @@
       <c r="K90" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="L90" s="13" t="n">
-        <v>877</v>
+      <c r="L90" s="16" t="n">
+        <v>1076</v>
       </c>
       <c r="M90" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="N90" s="13" t="n">
-        <v>877</v>
+      <c r="N90" s="16" t="n">
+        <v>1076</v>
       </c>
       <c r="O90" s="16" t="n">
         <v>5703</v>
@@ -8530,14 +7841,14 @@
       <c r="Q90" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R90" s="13" t="n">
-        <v>877</v>
+      <c r="R90" s="16" t="n">
+        <v>1076</v>
       </c>
       <c r="S90" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="T90" s="13" t="n">
-        <v>877</v>
+      <c r="T90" s="16" t="n">
+        <v>1076</v>
       </c>
       <c r="U90" s="15" t="e"/>
       <c r="V90" s="15" t="e"/>
@@ -8558,36 +7869,29 @@
       <c r="AK90" s="9" t="e"/>
       <c r="AL90" s="9" t="e"/>
       <c r="AM90" s="9" t="e"/>
-      <c r="AN90" s="9" t="e"/>
-      <c r="AO90" s="9" t="e"/>
-      <c r="AP90" s="9" t="e"/>
-      <c r="AQ90" s="9" t="e"/>
-      <c r="AR90" s="9" t="e"/>
-      <c r="AS90" s="9" t="e"/>
-      <c r="AT90" s="9" t="e"/>
     </row>
     <row r="91" ht="33" customHeight="true">
       <c r="A91" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B91" s="9" t="e"/>
       <c r="C91" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I91" s="13" t="n">
         <v>337</v>
@@ -8644,36 +7948,29 @@
       <c r="AK91" s="9" t="e"/>
       <c r="AL91" s="9" t="e"/>
       <c r="AM91" s="9" t="e"/>
-      <c r="AN91" s="9" t="e"/>
-      <c r="AO91" s="9" t="e"/>
-      <c r="AP91" s="9" t="e"/>
-      <c r="AQ91" s="9" t="e"/>
-      <c r="AR91" s="9" t="e"/>
-      <c r="AS91" s="9" t="e"/>
-      <c r="AT91" s="9" t="e"/>
     </row>
     <row r="92" ht="33" customHeight="true">
       <c r="A92" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B92" s="9" t="e"/>
       <c r="C92" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I92" s="13" t="n">
         <v>200</v>
@@ -8730,36 +8027,29 @@
       <c r="AK92" s="9" t="e"/>
       <c r="AL92" s="9" t="e"/>
       <c r="AM92" s="9" t="e"/>
-      <c r="AN92" s="9" t="e"/>
-      <c r="AO92" s="9" t="e"/>
-      <c r="AP92" s="9" t="e"/>
-      <c r="AQ92" s="9" t="e"/>
-      <c r="AR92" s="9" t="e"/>
-      <c r="AS92" s="9" t="e"/>
-      <c r="AT92" s="9" t="e"/>
     </row>
     <row r="93" ht="33" customHeight="true">
       <c r="A93" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B93" s="9" t="e"/>
       <c r="C93" s="9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I93" s="13" t="n">
         <v>244</v>
@@ -8816,36 +8106,29 @@
       <c r="AK93" s="9" t="e"/>
       <c r="AL93" s="9" t="e"/>
       <c r="AM93" s="9" t="e"/>
-      <c r="AN93" s="9" t="e"/>
-      <c r="AO93" s="9" t="e"/>
-      <c r="AP93" s="9" t="e"/>
-      <c r="AQ93" s="9" t="e"/>
-      <c r="AR93" s="9" t="e"/>
-      <c r="AS93" s="9" t="e"/>
-      <c r="AT93" s="9" t="e"/>
     </row>
     <row r="94" ht="33" customHeight="true">
       <c r="A94" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B94" s="9" t="e"/>
       <c r="C94" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I94" s="16" t="n">
         <v>1198</v>
@@ -8902,36 +8185,29 @@
       <c r="AK94" s="9" t="e"/>
       <c r="AL94" s="9" t="e"/>
       <c r="AM94" s="9" t="e"/>
-      <c r="AN94" s="9" t="e"/>
-      <c r="AO94" s="9" t="e"/>
-      <c r="AP94" s="9" t="e"/>
-      <c r="AQ94" s="9" t="e"/>
-      <c r="AR94" s="9" t="e"/>
-      <c r="AS94" s="9" t="e"/>
-      <c r="AT94" s="9" t="e"/>
     </row>
     <row r="95" ht="22" customHeight="true">
       <c r="A95" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B95" s="9" t="e"/>
       <c r="C95" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I95" s="11" t="n">
         <v>0</v>
@@ -8941,13 +8217,13 @@
         <v>0</v>
       </c>
       <c r="L95" s="11" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M95" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N95" s="13" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O95" s="11" t="n">
         <v>0</v>
@@ -8957,13 +8233,13 @@
         <v>0</v>
       </c>
       <c r="R95" s="11" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="S95" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T95" s="13" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="U95" s="15" t="e"/>
       <c r="V95" s="15" t="e"/>
@@ -8984,42 +8260,35 @@
       <c r="AK95" s="9" t="e"/>
       <c r="AL95" s="9" t="e"/>
       <c r="AM95" s="9" t="e"/>
-      <c r="AN95" s="9" t="e"/>
-      <c r="AO95" s="9" t="e"/>
-      <c r="AP95" s="9" t="e"/>
-      <c r="AQ95" s="9" t="e"/>
-      <c r="AR95" s="9" t="e"/>
-      <c r="AS95" s="9" t="e"/>
-      <c r="AT95" s="9" t="e"/>
     </row>
     <row r="96" ht="22" customHeight="true">
       <c r="A96" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B96" s="9" t="e"/>
       <c r="C96" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I96" s="16" t="n">
-        <v>11238</v>
+        <v>10948</v>
       </c>
       <c r="J96" s="16" t="n">
-        <v>11238</v>
+        <v>10948</v>
       </c>
       <c r="K96" s="13" t="n">
         <v>0</v>
@@ -9034,10 +8303,10 @@
         <v>100</v>
       </c>
       <c r="O96" s="16" t="n">
-        <v>11238</v>
+        <v>10948</v>
       </c>
       <c r="P96" s="16" t="n">
-        <v>11238</v>
+        <v>10948</v>
       </c>
       <c r="Q96" s="13" t="n">
         <v>0</v>
@@ -9070,36 +8339,29 @@
       <c r="AK96" s="9" t="e"/>
       <c r="AL96" s="9" t="e"/>
       <c r="AM96" s="9" t="e"/>
-      <c r="AN96" s="9" t="e"/>
-      <c r="AO96" s="9" t="e"/>
-      <c r="AP96" s="9" t="e"/>
-      <c r="AQ96" s="9" t="e"/>
-      <c r="AR96" s="9" t="e"/>
-      <c r="AS96" s="9" t="e"/>
-      <c r="AT96" s="9" t="e"/>
     </row>
     <row r="97" ht="22" customHeight="true">
       <c r="A97" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B97" s="9" t="e"/>
       <c r="C97" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I97" s="11" t="n">
         <v>0</v>
@@ -9152,36 +8414,29 @@
       <c r="AK97" s="9" t="e"/>
       <c r="AL97" s="9" t="e"/>
       <c r="AM97" s="9" t="e"/>
-      <c r="AN97" s="9" t="e"/>
-      <c r="AO97" s="9" t="e"/>
-      <c r="AP97" s="9" t="e"/>
-      <c r="AQ97" s="9" t="e"/>
-      <c r="AR97" s="9" t="e"/>
-      <c r="AS97" s="9" t="e"/>
-      <c r="AT97" s="9" t="e"/>
     </row>
     <row r="98" ht="22" customHeight="true">
       <c r="A98" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B98" s="9" t="e"/>
       <c r="C98" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I98" s="16" t="n">
         <v>1000</v>
@@ -9193,13 +8448,13 @@
         <v>0</v>
       </c>
       <c r="L98" s="13" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M98" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N98" s="13" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O98" s="16" t="n">
         <v>1000</v>
@@ -9211,13 +8466,13 @@
         <v>0</v>
       </c>
       <c r="R98" s="13" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="S98" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T98" s="13" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="U98" s="15" t="e"/>
       <c r="V98" s="15" t="e"/>
@@ -9238,36 +8493,29 @@
       <c r="AK98" s="9" t="e"/>
       <c r="AL98" s="9" t="e"/>
       <c r="AM98" s="9" t="e"/>
-      <c r="AN98" s="9" t="e"/>
-      <c r="AO98" s="9" t="e"/>
-      <c r="AP98" s="9" t="e"/>
-      <c r="AQ98" s="9" t="e"/>
-      <c r="AR98" s="9" t="e"/>
-      <c r="AS98" s="9" t="e"/>
-      <c r="AT98" s="9" t="e"/>
     </row>
     <row r="99" ht="22" customHeight="true">
       <c r="A99" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B99" s="9" t="e"/>
       <c r="C99" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I99" s="16" t="n">
         <v>1832</v>
@@ -9279,13 +8527,13 @@
         <v>0</v>
       </c>
       <c r="L99" s="13" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M99" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N99" s="13" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O99" s="16" t="n">
         <v>1832</v>
@@ -9297,13 +8545,13 @@
         <v>0</v>
       </c>
       <c r="R99" s="13" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S99" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T99" s="13" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U99" s="15" t="e"/>
       <c r="V99" s="15" t="e"/>
@@ -9324,36 +8572,29 @@
       <c r="AK99" s="9" t="e"/>
       <c r="AL99" s="9" t="e"/>
       <c r="AM99" s="9" t="e"/>
-      <c r="AN99" s="9" t="e"/>
-      <c r="AO99" s="9" t="e"/>
-      <c r="AP99" s="9" t="e"/>
-      <c r="AQ99" s="9" t="e"/>
-      <c r="AR99" s="9" t="e"/>
-      <c r="AS99" s="9" t="e"/>
-      <c r="AT99" s="9" t="e"/>
     </row>
     <row r="100" ht="22" customHeight="true">
       <c r="A100" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B100" s="9" t="e"/>
       <c r="C100" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I100" s="16" t="n">
         <v>5368</v>
@@ -9365,13 +8606,13 @@
         <v>0</v>
       </c>
       <c r="L100" s="13" t="n">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="M100" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N100" s="13" t="n">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="O100" s="16" t="n">
         <v>5368</v>
@@ -9383,13 +8624,13 @@
         <v>0</v>
       </c>
       <c r="R100" s="13" t="n">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="S100" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T100" s="13" t="n">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="U100" s="15" t="e"/>
       <c r="V100" s="15" t="e"/>
@@ -9410,36 +8651,29 @@
       <c r="AK100" s="9" t="e"/>
       <c r="AL100" s="9" t="e"/>
       <c r="AM100" s="9" t="e"/>
-      <c r="AN100" s="9" t="e"/>
-      <c r="AO100" s="9" t="e"/>
-      <c r="AP100" s="9" t="e"/>
-      <c r="AQ100" s="9" t="e"/>
-      <c r="AR100" s="9" t="e"/>
-      <c r="AS100" s="9" t="e"/>
-      <c r="AT100" s="9" t="e"/>
     </row>
     <row r="101" ht="22" customHeight="true">
       <c r="A101" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B101" s="9" t="e"/>
       <c r="C101" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I101" s="16" t="n">
         <v>6911</v>
@@ -9450,14 +8684,14 @@
       <c r="K101" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="L101" s="13" t="n">
-        <v>877</v>
+      <c r="L101" s="16" t="n">
+        <v>1076</v>
       </c>
       <c r="M101" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="N101" s="13" t="n">
-        <v>877</v>
+      <c r="N101" s="16" t="n">
+        <v>1076</v>
       </c>
       <c r="O101" s="16" t="n">
         <v>6911</v>
@@ -9468,14 +8702,14 @@
       <c r="Q101" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R101" s="13" t="n">
-        <v>877</v>
+      <c r="R101" s="16" t="n">
+        <v>1076</v>
       </c>
       <c r="S101" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="T101" s="13" t="n">
-        <v>877</v>
+      <c r="T101" s="16" t="n">
+        <v>1076</v>
       </c>
       <c r="U101" s="15" t="e"/>
       <c r="V101" s="15" t="e"/>
@@ -9496,34 +8730,27 @@
       <c r="AK101" s="9" t="e"/>
       <c r="AL101" s="9" t="e"/>
       <c r="AM101" s="9" t="e"/>
-      <c r="AN101" s="9" t="e"/>
-      <c r="AO101" s="9" t="e"/>
-      <c r="AP101" s="9" t="e"/>
-      <c r="AQ101" s="9" t="e"/>
-      <c r="AR101" s="9" t="e"/>
-      <c r="AS101" s="9" t="e"/>
-      <c r="AT101" s="9" t="e"/>
     </row>
     <row r="102" ht="22" customHeight="true">
       <c r="A102" s="9" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B102" s="9" t="e"/>
       <c r="C102" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D102" s="9" t="e"/>
       <c r="E102" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I102" s="13" t="n">
         <v>36</v>
@@ -9580,36 +8807,29 @@
       <c r="AK102" s="9" t="e"/>
       <c r="AL102" s="9" t="e"/>
       <c r="AM102" s="9" t="e"/>
-      <c r="AN102" s="9" t="e"/>
-      <c r="AO102" s="9" t="e"/>
-      <c r="AP102" s="9" t="e"/>
-      <c r="AQ102" s="9" t="e"/>
-      <c r="AR102" s="9" t="e"/>
-      <c r="AS102" s="9" t="e"/>
-      <c r="AT102" s="9" t="e"/>
     </row>
     <row r="103" ht="11" customHeight="true">
       <c r="A103" s="9" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B103" s="9" t="e"/>
       <c r="C103" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I103" s="16" t="n">
         <v>4761</v>
@@ -9621,13 +8841,13 @@
         <v>0</v>
       </c>
       <c r="L103" s="13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M103" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N103" s="13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O103" s="16" t="n">
         <v>4761</v>
@@ -9639,13 +8859,13 @@
         <v>0</v>
       </c>
       <c r="R103" s="13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S103" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T103" s="13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U103" s="15" t="e"/>
       <c r="V103" s="15" t="e"/>
@@ -9666,34 +8886,27 @@
       <c r="AK103" s="9" t="e"/>
       <c r="AL103" s="9" t="e"/>
       <c r="AM103" s="9" t="e"/>
-      <c r="AN103" s="9" t="e"/>
-      <c r="AO103" s="9" t="e"/>
-      <c r="AP103" s="9" t="e"/>
-      <c r="AQ103" s="9" t="e"/>
-      <c r="AR103" s="9" t="e"/>
-      <c r="AS103" s="9" t="e"/>
-      <c r="AT103" s="9" t="e"/>
     </row>
     <row r="104" ht="11" customHeight="true">
       <c r="A104" s="9" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B104" s="9" t="e"/>
       <c r="C104" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D104" s="9" t="e"/>
       <c r="E104" s="9" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I104" s="16" t="n">
         <v>2126</v>
@@ -9750,36 +8963,29 @@
       <c r="AK104" s="9" t="e"/>
       <c r="AL104" s="9" t="e"/>
       <c r="AM104" s="9" t="e"/>
-      <c r="AN104" s="9" t="e"/>
-      <c r="AO104" s="9" t="e"/>
-      <c r="AP104" s="9" t="e"/>
-      <c r="AQ104" s="9" t="e"/>
-      <c r="AR104" s="9" t="e"/>
-      <c r="AS104" s="9" t="e"/>
-      <c r="AT104" s="9" t="e"/>
     </row>
     <row r="105" ht="11" customHeight="true">
       <c r="A105" s="9" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B105" s="9" t="e"/>
       <c r="C105" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I105" s="16" t="n">
         <v>1239</v>
@@ -9836,36 +9042,29 @@
       <c r="AK105" s="9" t="e"/>
       <c r="AL105" s="9" t="e"/>
       <c r="AM105" s="9" t="e"/>
-      <c r="AN105" s="9" t="e"/>
-      <c r="AO105" s="9" t="e"/>
-      <c r="AP105" s="9" t="e"/>
-      <c r="AQ105" s="9" t="e"/>
-      <c r="AR105" s="9" t="e"/>
-      <c r="AS105" s="9" t="e"/>
-      <c r="AT105" s="9" t="e"/>
     </row>
     <row r="106" ht="22" customHeight="true">
       <c r="A106" s="9" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B106" s="9" t="e"/>
       <c r="C106" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I106" s="16" t="n">
         <v>1000</v>
@@ -9877,13 +9076,13 @@
         <v>0</v>
       </c>
       <c r="L106" s="13" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M106" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N106" s="13" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O106" s="16" t="n">
         <v>1000</v>
@@ -9895,13 +9094,13 @@
         <v>0</v>
       </c>
       <c r="R106" s="13" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="S106" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T106" s="13" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="U106" s="15" t="e"/>
       <c r="V106" s="15" t="e"/>
@@ -9922,36 +9121,29 @@
       <c r="AK106" s="9" t="e"/>
       <c r="AL106" s="9" t="e"/>
       <c r="AM106" s="9" t="e"/>
-      <c r="AN106" s="9" t="e"/>
-      <c r="AO106" s="9" t="e"/>
-      <c r="AP106" s="9" t="e"/>
-      <c r="AQ106" s="9" t="e"/>
-      <c r="AR106" s="9" t="e"/>
-      <c r="AS106" s="9" t="e"/>
-      <c r="AT106" s="9" t="e"/>
     </row>
     <row r="107" ht="22" customHeight="true">
       <c r="A107" s="9" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B107" s="9" t="e"/>
       <c r="C107" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I107" s="16" t="n">
         <v>2599</v>
@@ -9963,13 +9155,13 @@
         <v>0</v>
       </c>
       <c r="L107" s="13" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M107" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N107" s="13" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O107" s="16" t="n">
         <v>2599</v>
@@ -9981,13 +9173,13 @@
         <v>0</v>
       </c>
       <c r="R107" s="13" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S107" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T107" s="13" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U107" s="15" t="e"/>
       <c r="V107" s="15" t="e"/>
@@ -10008,36 +9200,29 @@
       <c r="AK107" s="9" t="e"/>
       <c r="AL107" s="9" t="e"/>
       <c r="AM107" s="9" t="e"/>
-      <c r="AN107" s="9" t="e"/>
-      <c r="AO107" s="9" t="e"/>
-      <c r="AP107" s="9" t="e"/>
-      <c r="AQ107" s="9" t="e"/>
-      <c r="AR107" s="9" t="e"/>
-      <c r="AS107" s="9" t="e"/>
-      <c r="AT107" s="9" t="e"/>
     </row>
     <row r="108" ht="11" customHeight="true">
       <c r="A108" s="9" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B108" s="9" t="e"/>
       <c r="C108" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I108" s="16" t="n">
         <v>4912</v>
@@ -10049,13 +9234,13 @@
         <v>0</v>
       </c>
       <c r="L108" s="13" t="n">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="M108" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N108" s="13" t="n">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="O108" s="16" t="n">
         <v>4912</v>
@@ -10067,13 +9252,13 @@
         <v>0</v>
       </c>
       <c r="R108" s="13" t="n">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="S108" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T108" s="13" t="n">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="U108" s="15" t="e"/>
       <c r="V108" s="15" t="e"/>
@@ -10094,154 +9279,126 @@
       <c r="AK108" s="9" t="e"/>
       <c r="AL108" s="9" t="e"/>
       <c r="AM108" s="9" t="e"/>
-      <c r="AN108" s="9" t="e"/>
-      <c r="AO108" s="9" t="e"/>
-      <c r="AP108" s="9" t="e"/>
-      <c r="AQ108" s="9" t="e"/>
-      <c r="AR108" s="9" t="e"/>
-      <c r="AS108" s="9" t="e"/>
-      <c r="AT108" s="9" t="e"/>
     </row>
     <row r="109" ht="22" customHeight="true">
       <c r="A109" s="9" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B109" s="9" t="e"/>
       <c r="C109" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I109" s="16" t="n">
-        <v>2900</v>
+        <v>4506</v>
       </c>
       <c r="J109" s="16" t="n">
-        <v>2900</v>
+        <v>4506</v>
       </c>
       <c r="K109" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="L109" s="13" t="n">
-        <v>984</v>
+      <c r="L109" s="16" t="n">
+        <v>1185</v>
       </c>
       <c r="M109" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="13" t="n">
-        <v>984</v>
+      <c r="N109" s="16" t="n">
+        <v>1185</v>
       </c>
       <c r="O109" s="16" t="n">
-        <v>2900</v>
+        <v>4506</v>
       </c>
       <c r="P109" s="16" t="n">
-        <v>2900</v>
+        <v>4506</v>
       </c>
       <c r="Q109" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R109" s="13" t="n">
-        <v>984</v>
+      <c r="R109" s="16" t="n">
+        <v>1185</v>
       </c>
       <c r="S109" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="T109" s="13" t="n">
-        <v>984</v>
+      <c r="T109" s="16" t="n">
+        <v>1185</v>
       </c>
       <c r="U109" s="13" t="n">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="V109" s="18" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="W109" s="19" t="n">
-        <v>31</v>
-      </c>
-      <c r="X109" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y109" s="20" t="n">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="X109" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y109" s="19" t="n">
+        <v>9</v>
       </c>
       <c r="Z109" s="20" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AA109" s="20" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AB109" s="20" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AC109" s="20" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AD109" s="20" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE109" s="20" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AF109" s="20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG109" s="21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH109" s="21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI109" s="21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ109" s="21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK109" s="21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL109" s="21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM109" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="AN109" s="21" t="n">
+      <c r="AG109" s="20" t="n">
         <v>17</v>
       </c>
-      <c r="AO109" s="21" t="n">
+      <c r="AH109" s="20" t="n">
         <v>18</v>
       </c>
-      <c r="AP109" s="21" t="n">
+      <c r="AI109" s="20" t="n">
         <v>19</v>
       </c>
-      <c r="AQ109" s="21" t="n">
+      <c r="AJ109" s="20" t="n">
         <v>20</v>
       </c>
-      <c r="AR109" s="21" t="n">
+      <c r="AK109" s="20" t="n">
         <v>21</v>
       </c>
-      <c r="AS109" s="21" t="n">
+      <c r="AL109" s="20" t="n">
         <v>22</v>
       </c>
-      <c r="AT109" s="21" t="n">
+      <c r="AM109" s="20" t="n">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="34">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -10276,13 +9433,6 @@
     <mergeCell ref="AK2:AK3"/>
     <mergeCell ref="AL2:AL3"/>
     <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AT2:AT3"/>
   </mergeCells>
   <pageMargins left="0.75" top="0.75" right="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
